--- a/data/SeaGrant-TA_DIC-MassBayData/ToRies_Labprocessed2018_sharedSeaGlass.xlsx
+++ b/data/SeaGrant-TA_DIC-MassBayData/ToRies_Labprocessed2018_sharedSeaGlass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/becklabash/Desktop/Sea Grant/data/SeaGrant-TA_DIC-MassBayData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/becklabash/Desktop/SeaGrant/data/SeaGrant-TA_DIC-MassBayData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DC417A-6948-6845-BA53-1E7C2CBE39CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26AD550-4547-4D45-8195-061B7DE28600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="6320" windowWidth="23000" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="5340" windowWidth="23000" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="270">
   <si>
     <t>SampleID</t>
   </si>
@@ -905,75 +905,27 @@
     <t>WN1880BC</t>
   </si>
   <si>
-    <t>20180927, 10:34</t>
-  </si>
-  <si>
-    <t>20180927, 10:38</t>
-  </si>
-  <si>
     <t>Hangman's</t>
   </si>
   <si>
-    <t>20180927, 11:18</t>
-  </si>
-  <si>
-    <t>20180927, 11:23</t>
-  </si>
-  <si>
     <t>Hingham</t>
   </si>
   <si>
-    <t>20180927, 11:45</t>
-  </si>
-  <si>
-    <t>20180927, 11:48</t>
-  </si>
-  <si>
     <t>Peddocks</t>
   </si>
   <si>
-    <t>20180927, 12:08</t>
-  </si>
-  <si>
-    <t>20180927, 12:15</t>
-  </si>
-  <si>
     <t>Dorchester</t>
   </si>
   <si>
-    <t>20180927, 12:32</t>
-  </si>
-  <si>
-    <t>20180927, 12:38</t>
-  </si>
-  <si>
     <t>Inner Harbor</t>
   </si>
   <si>
-    <t>20180927, 13:06</t>
-  </si>
-  <si>
-    <t>20180927, 13:10</t>
-  </si>
-  <si>
     <t>Charles</t>
   </si>
   <si>
-    <t>20180927, 13:15</t>
-  </si>
-  <si>
-    <t>20180927, 13:20</t>
-  </si>
-  <si>
     <t>Mystic</t>
   </si>
   <si>
-    <t>20180927, 14:21</t>
-  </si>
-  <si>
-    <t>20180927, 14:30</t>
-  </si>
-  <si>
     <t>Columns</t>
   </si>
   <si>
@@ -1053,6 +1005,84 @@
   </si>
   <si>
     <t>ToRies_Labprocessed2018_sharedSeaGlass</t>
+  </si>
+  <si>
+    <t>24 Oct 2018, 11:40</t>
+  </si>
+  <si>
+    <t>24 Oct 2018, 11:50</t>
+  </si>
+  <si>
+    <t>24 Oct 2018, 12:05</t>
+  </si>
+  <si>
+    <t>24 Oct 2018, 12:15</t>
+  </si>
+  <si>
+    <t>24 Oct 2018, 12:40</t>
+  </si>
+  <si>
+    <t>24 Oct 2018, 12:44</t>
+  </si>
+  <si>
+    <t>24 Oct 2018, 13:04</t>
+  </si>
+  <si>
+    <t>24 Oct 2018, 13:08</t>
+  </si>
+  <si>
+    <t>30 Nov 2018, 11:40</t>
+  </si>
+  <si>
+    <t>30 Nov 2018, 12:05</t>
+  </si>
+  <si>
+    <t>2018 09 27, 10:34</t>
+  </si>
+  <si>
+    <t>2018 09 27, 10:38</t>
+  </si>
+  <si>
+    <t>2018 09 27, 11:18</t>
+  </si>
+  <si>
+    <t>2018 09 27, 11:23</t>
+  </si>
+  <si>
+    <t>2018 09 27, 11:45</t>
+  </si>
+  <si>
+    <t>2018 09 27, 11:48</t>
+  </si>
+  <si>
+    <t>2018 09 27, 12:08</t>
+  </si>
+  <si>
+    <t>2018 09 27, 12:15</t>
+  </si>
+  <si>
+    <t>2018 09 27, 12:32</t>
+  </si>
+  <si>
+    <t>2018 09 27, 12:38</t>
+  </si>
+  <si>
+    <t>2018 09 27, 13:06</t>
+  </si>
+  <si>
+    <t>2018 09 27, 13:10</t>
+  </si>
+  <si>
+    <t>2018 09 27, 13:15</t>
+  </si>
+  <si>
+    <t>2018 09 27, 13:20</t>
+  </si>
+  <si>
+    <t>2018 09 27, 14:21</t>
+  </si>
+  <si>
+    <t>2018 09 27, 14:30</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1321,28 +1351,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,9 +1475,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,10 +1599,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1933,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="143" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1941,94 +1951,94 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2041,8 +2051,8 @@
   <dimension ref="A1:AL174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM7" sqref="AM7"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2165,10 +2175,10 @@
         <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="AL1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -2281,10 +2291,10 @@
         <v>397.07362975055025</v>
       </c>
       <c r="AK2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -2397,10 +2407,10 @@
         <v>393.13171708026567</v>
       </c>
       <c r="AK3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL3" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -2513,10 +2523,10 @@
         <v>392.9428988754662</v>
       </c>
       <c r="AK4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL4" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
@@ -2629,10 +2639,10 @@
         <v>415.89032440129262</v>
       </c>
       <c r="AK5" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL5" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -2745,10 +2755,10 @@
         <v>405.56487982908948</v>
       </c>
       <c r="AK6" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL6" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -2861,10 +2871,10 @@
         <v>424.0485253427679</v>
       </c>
       <c r="AK7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -2977,10 +2987,10 @@
         <v>473.59808727123112</v>
       </c>
       <c r="AK8" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL8" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -3093,10 +3103,10 @@
         <v>439.72540063516266</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL9" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -3209,10 +3219,10 @@
         <v>450.2912756040127</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL10" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
@@ -3325,10 +3335,10 @@
         <v>434.76714407835124</v>
       </c>
       <c r="AK11" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL11" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -3441,65 +3451,65 @@
         <v>442.48530987644551</v>
       </c>
       <c r="AK12" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="57" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="20">
         <v>43137.565150462964</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="58">
         <v>42.419914245605497</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="58">
         <v>-70.865737915039105</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="59">
         <v>15.1498670578003</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="59">
         <v>3.30049753189087</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="59">
         <v>32.487403869628899</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="59">
         <v>25.8535556793213</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="59">
         <v>29.8554801940918</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13" s="59">
         <v>0.82913476228714</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="59">
         <v>1.6655969619751001</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="59">
         <v>10.590147018432599</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="59">
         <v>98.607803344726605</v>
       </c>
-      <c r="P13" s="60">
+      <c r="P13" s="59">
         <v>1046.32141113281</v>
       </c>
-      <c r="Q13" s="60">
+      <c r="Q13" s="59">
         <v>27.8624362945557</v>
       </c>
-      <c r="R13" s="61">
+      <c r="R13" s="60">
         <v>8.2306613922119105</v>
       </c>
       <c r="S13" s="19">
@@ -3557,65 +3567,65 @@
         <v>437.68774012528905</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL13" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="57" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="20">
         <v>43137.565150462964</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="58">
         <v>42.419914245605497</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="58">
         <v>-70.865737915039105</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="59">
         <v>15.1498670578003</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="59">
         <v>3.30049753189087</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="59">
         <v>32.487403869628899</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="59">
         <v>25.8535556793213</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="59">
         <v>29.8554801940918</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L14" s="59">
         <v>0.82913476228714</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="59">
         <v>1.6655969619751001</v>
       </c>
-      <c r="N14" s="60">
+      <c r="N14" s="59">
         <v>10.590147018432599</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="59">
         <v>98.607803344726605</v>
       </c>
-      <c r="P14" s="60">
+      <c r="P14" s="59">
         <v>1046.32141113281</v>
       </c>
-      <c r="Q14" s="60">
+      <c r="Q14" s="59">
         <v>27.8624362945557</v>
       </c>
-      <c r="R14" s="61">
+      <c r="R14" s="60">
         <v>8.2306613922119105</v>
       </c>
       <c r="S14" s="19">
@@ -3673,10 +3683,10 @@
         <v>437.93442768108275</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL14" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -3789,10 +3799,10 @@
         <v>430.94013731975167</v>
       </c>
       <c r="AK15" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL15" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -3905,10 +3915,10 @@
         <v>391.94719194163355</v>
       </c>
       <c r="AK16" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL16" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -4021,10 +4031,10 @@
         <v>396.97834683399844</v>
       </c>
       <c r="AK17" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL17" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -4137,10 +4147,10 @@
         <v>403.46560055316041</v>
       </c>
       <c r="AK18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL18" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -4253,10 +4263,10 @@
         <v>292.64201330493393</v>
       </c>
       <c r="AK19" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL19" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -4369,10 +4379,10 @@
         <v>331.63573019998148</v>
       </c>
       <c r="AK20" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL20" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -4485,10 +4495,10 @@
         <v>359.40695730613783</v>
       </c>
       <c r="AK21" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL21" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -4601,65 +4611,65 @@
         <v>446.91813697879149</v>
       </c>
       <c r="AK22" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL22" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="20">
         <v>43200.49659722222</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="61">
         <v>42.480464935302699</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="61">
         <v>-70.6182861328125</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="59">
         <v>17.107069015502901</v>
       </c>
-      <c r="H23" s="60">
+      <c r="H23" s="59">
         <v>4.6164407730102504</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="59">
         <v>32.192985534667997</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="59">
         <v>25.4917106628418</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="59">
         <v>30.708490371704102</v>
       </c>
-      <c r="L23" s="60">
+      <c r="L23" s="59">
         <v>0.76848292350768999</v>
       </c>
-      <c r="M23" s="60">
+      <c r="M23" s="59">
         <v>7.7640409469604501</v>
       </c>
-      <c r="N23" s="60">
+      <c r="N23" s="59">
         <v>11.1378831863403</v>
       </c>
-      <c r="O23" s="60">
+      <c r="O23" s="59">
         <v>106.927658081055</v>
       </c>
-      <c r="P23" s="60">
+      <c r="P23" s="59">
         <v>931.5283203125</v>
       </c>
-      <c r="Q23" s="60">
+      <c r="Q23" s="59">
         <v>17.2377815246582</v>
       </c>
-      <c r="R23" s="61">
+      <c r="R23" s="60">
         <v>8.2860507965087908</v>
       </c>
       <c r="S23" s="19">
@@ -4717,65 +4727,65 @@
         <v>329.71595571579235</v>
       </c>
       <c r="AK23" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="20">
         <v>43200.49659722222</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="61">
         <v>42.480464935302699</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="61">
         <v>-70.6182861328125</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="59">
         <v>17.107069015502901</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="59">
         <v>4.6164407730102504</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="59">
         <v>32.192985534667997</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="59">
         <v>25.4917106628418</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="59">
         <v>30.708490371704102</v>
       </c>
-      <c r="L24" s="60">
+      <c r="L24" s="59">
         <v>0.76848292350768999</v>
       </c>
-      <c r="M24" s="60">
+      <c r="M24" s="59">
         <v>7.7640409469604501</v>
       </c>
-      <c r="N24" s="60">
+      <c r="N24" s="59">
         <v>11.1378831863403</v>
       </c>
-      <c r="O24" s="60">
+      <c r="O24" s="59">
         <v>106.927658081055</v>
       </c>
-      <c r="P24" s="60">
+      <c r="P24" s="59">
         <v>931.5283203125</v>
       </c>
-      <c r="Q24" s="60">
+      <c r="Q24" s="59">
         <v>17.2377815246582</v>
       </c>
-      <c r="R24" s="61">
+      <c r="R24" s="60">
         <v>8.2860507965087908</v>
       </c>
       <c r="S24" s="19">
@@ -4833,10 +4843,10 @@
         <v>321.30286765373461</v>
       </c>
       <c r="AK24" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -4949,10 +4959,10 @@
         <v>340.44380453793696</v>
       </c>
       <c r="AK25" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -5065,65 +5075,65 @@
         <v>462.80682537976537</v>
       </c>
       <c r="AK26" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="57" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="20">
         <v>43200.570289351854</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="61">
         <v>42.4192504882813</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="61">
         <v>-70.864585876464801</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="59">
         <v>12.8826131820679</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="59">
         <v>4.4514231681823704</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="59">
         <v>32.113971710205099</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="59">
         <v>25.446083068847699</v>
       </c>
-      <c r="K27" s="60">
+      <c r="K27" s="59">
         <v>30.5004367828369</v>
       </c>
-      <c r="L27" s="60">
+      <c r="L27" s="59">
         <v>0.67535269260406505</v>
       </c>
-      <c r="M27" s="60">
+      <c r="M27" s="59">
         <v>4.93735551834106</v>
       </c>
-      <c r="N27" s="60">
+      <c r="N27" s="59">
         <v>10.891887664794901</v>
       </c>
-      <c r="O27" s="60">
+      <c r="O27" s="59">
         <v>104.090454101563</v>
       </c>
-      <c r="P27" s="60">
+      <c r="P27" s="59">
         <v>1286.44250488281</v>
       </c>
-      <c r="Q27" s="60">
+      <c r="Q27" s="59">
         <v>69.314437866210895</v>
       </c>
-      <c r="R27" s="61">
+      <c r="R27" s="60">
         <v>8.2939958572387695</v>
       </c>
       <c r="S27" s="19">
@@ -5181,65 +5191,65 @@
         <v>379.91502933048559</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="20">
         <v>43200.570289351854</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="61">
         <v>42.4192504882813</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="61">
         <v>-70.864585876464801</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="59">
         <v>12.8826131820679</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="59">
         <v>4.4514231681823704</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="59">
         <v>32.113971710205099</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="59">
         <v>25.446083068847699</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="59">
         <v>30.5004367828369</v>
       </c>
-      <c r="L28" s="60">
+      <c r="L28" s="59">
         <v>0.67535269260406505</v>
       </c>
-      <c r="M28" s="60">
+      <c r="M28" s="59">
         <v>4.93735551834106</v>
       </c>
-      <c r="N28" s="60">
+      <c r="N28" s="59">
         <v>10.891887664794901</v>
       </c>
-      <c r="O28" s="60">
+      <c r="O28" s="59">
         <v>104.090454101563</v>
       </c>
-      <c r="P28" s="60">
+      <c r="P28" s="59">
         <v>1286.44250488281</v>
       </c>
-      <c r="Q28" s="60">
+      <c r="Q28" s="59">
         <v>69.314437866210895</v>
       </c>
-      <c r="R28" s="61">
+      <c r="R28" s="60">
         <v>8.2939958572387695</v>
       </c>
       <c r="S28" s="19">
@@ -5297,10 +5307,10 @@
         <v>404.97782622711134</v>
       </c>
       <c r="AK28" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -5413,10 +5423,10 @@
         <v>337.05872121341838</v>
       </c>
       <c r="AK29" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL29" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
@@ -5529,10 +5539,10 @@
         <v>364.6666952355875</v>
       </c>
       <c r="AK30" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL30" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
@@ -5645,10 +5655,10 @@
         <v>406.72488048723756</v>
       </c>
       <c r="AK31" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
@@ -5761,10 +5771,10 @@
         <v>437.22909485985485</v>
       </c>
       <c r="AK32" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL32" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
@@ -5877,10 +5887,10 @@
         <v>417.25171999167958</v>
       </c>
       <c r="AK33" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL33" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -5993,10 +6003,10 @@
         <v>369.89704276233419</v>
       </c>
       <c r="AK34" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -6109,10 +6119,10 @@
         <v>453.04638003110847</v>
       </c>
       <c r="AK35" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL35" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
@@ -6225,10 +6235,10 @@
         <v>349.26447395727519</v>
       </c>
       <c r="AK36" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL36" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -6341,10 +6351,10 @@
         <v>334.05342168020468</v>
       </c>
       <c r="AK37" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL37" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -6457,10 +6467,10 @@
         <v>334.49060433237617</v>
       </c>
       <c r="AK38" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL38" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -6573,10 +6583,10 @@
         <v>437.5200948651779</v>
       </c>
       <c r="AK39" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL39" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
@@ -6689,10 +6699,10 @@
         <v>384.25546568747177</v>
       </c>
       <c r="AK40" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL40" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:38" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -6805,10 +6815,10 @@
         <v>331.89578188725721</v>
       </c>
       <c r="AK41" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL41" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -6921,10 +6931,10 @@
         <v>339.01838062260492</v>
       </c>
       <c r="AK42" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL42" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7037,10 +7047,10 @@
         <v>316.44124492709295</v>
       </c>
       <c r="AK43" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL43" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7064,7 +7074,7 @@
       <c r="H44" s="1">
         <v>12.35</v>
       </c>
-      <c r="I44" s="87"/>
+      <c r="I44" s="85"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -7129,10 +7139,10 @@
         <v>557.83180730818469</v>
       </c>
       <c r="AK44" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL44" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7156,7 +7166,7 @@
       <c r="H45" s="1">
         <v>12.35</v>
       </c>
-      <c r="I45" s="87"/>
+      <c r="I45" s="85"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -7221,10 +7231,10 @@
         <v>525.84907872102701</v>
       </c>
       <c r="AK45" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL45" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7248,7 +7258,7 @@
       <c r="H46" s="1">
         <v>9.5</v>
       </c>
-      <c r="I46" s="87"/>
+      <c r="I46" s="85"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -7313,10 +7323,10 @@
         <v>492.40335582844665</v>
       </c>
       <c r="AK46" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL46" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7340,7 +7350,7 @@
       <c r="H47" s="26">
         <v>9.5</v>
       </c>
-      <c r="I47" s="87"/>
+      <c r="I47" s="85"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -7405,10 +7415,10 @@
         <v>488.01113399905375</v>
       </c>
       <c r="AK47" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL47" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -7521,10 +7531,10 @@
         <v>396.23668490863167</v>
       </c>
       <c r="AK48" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL48" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -7637,10 +7647,10 @@
         <v>378.91011420722549</v>
       </c>
       <c r="AK49" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL49" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -7753,10 +7763,10 @@
         <v>379.93918080499685</v>
       </c>
       <c r="AK50" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL50" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -7869,10 +7879,10 @@
         <v>487.61887306004633</v>
       </c>
       <c r="AK51" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL51" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -7985,10 +7995,10 @@
         <v>364.07646102842693</v>
       </c>
       <c r="AK52" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL52" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -8101,10 +8111,10 @@
         <v>359.83570631468876</v>
       </c>
       <c r="AK53" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL53" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -8215,14 +8225,14 @@
         <v>378.87977550769381</v>
       </c>
       <c r="AK54" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL54" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="57" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="22" t="s">
@@ -8231,114 +8241,114 @@
       <c r="C55" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D55" s="62">
         <v>43273.56763888889</v>
       </c>
-      <c r="E55" s="64">
+      <c r="E55" s="63">
         <v>42.4799995422363</v>
       </c>
-      <c r="F55" s="64">
+      <c r="F55" s="63">
         <v>-70.619331359863295</v>
       </c>
-      <c r="G55" s="64">
+      <c r="G55" s="63">
         <v>21.203701019287099</v>
       </c>
-      <c r="H55" s="64">
+      <c r="H55" s="63">
         <v>7.8676667213439897</v>
       </c>
-      <c r="I55" s="64">
+      <c r="I55" s="63">
         <v>31.744800567626999</v>
       </c>
-      <c r="J55" s="64">
+      <c r="J55" s="63">
         <v>24.737648010253899</v>
       </c>
-      <c r="K55" s="64">
+      <c r="K55" s="63">
         <v>33.059349060058601</v>
       </c>
-      <c r="L55" s="64">
+      <c r="L55" s="63">
         <v>0.71536427736282304</v>
       </c>
-      <c r="M55" s="64">
+      <c r="M55" s="63">
         <v>4.7028131484985396</v>
       </c>
-      <c r="N55" s="64">
+      <c r="N55" s="63">
         <v>10.4569606781006</v>
       </c>
-      <c r="O55" s="64">
+      <c r="O55" s="63">
         <v>108.11545562744099</v>
       </c>
-      <c r="P55" s="64">
+      <c r="P55" s="63">
         <v>1730.4658203125</v>
       </c>
-      <c r="Q55" s="64">
+      <c r="Q55" s="63">
         <v>29.312549591064499</v>
       </c>
-      <c r="R55" s="65">
+      <c r="R55" s="64">
         <v>8.2321720123290998</v>
       </c>
-      <c r="S55" s="66">
+      <c r="S55" s="65">
         <v>2182.763916015625</v>
       </c>
-      <c r="T55" s="66">
+      <c r="T55" s="65">
         <v>2024.1905517578125</v>
       </c>
-      <c r="U55" s="66">
+      <c r="U55" s="65">
         <v>7.869999885559082</v>
       </c>
-      <c r="V55" s="66">
+      <c r="V55" s="65">
         <v>31.203701019287109</v>
       </c>
-      <c r="W55" s="66">
+      <c r="W55" s="65">
         <v>8.0482377238144718</v>
       </c>
-      <c r="X55" s="66">
+      <c r="X55" s="65">
         <v>372.88343281955446</v>
       </c>
-      <c r="Y55" s="66">
+      <c r="Y55" s="65">
         <v>374.36516663633097</v>
       </c>
-      <c r="Z55" s="66">
+      <c r="Z55" s="65">
         <v>1888.3229939810908</v>
       </c>
-      <c r="AA55" s="66">
+      <c r="AA55" s="65">
         <v>117.95420769732051</v>
       </c>
-      <c r="AB55" s="66">
+      <c r="AB55" s="65">
         <v>17.913298700197434</v>
       </c>
-      <c r="AC55" s="66">
+      <c r="AC55" s="65">
         <v>57.28833230352113</v>
       </c>
-      <c r="AD55" s="66">
+      <c r="AD55" s="65">
         <v>1.2533660666422182</v>
       </c>
-      <c r="AE55" s="66">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="66">
+      <c r="AE55" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="65">
         <v>13.30201280892021</v>
       </c>
-      <c r="AH55" s="66">
+      <c r="AH55" s="65">
         <v>2.8460015422248217</v>
       </c>
-      <c r="AI55" s="66">
+      <c r="AI55" s="65">
         <v>1.7926798356254987</v>
       </c>
-      <c r="AJ55" s="66">
+      <c r="AJ55" s="65">
         <v>378.26252069197534</v>
       </c>
       <c r="AK55" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL55" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="57" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="22" t="s">
@@ -8347,110 +8357,110 @@
       <c r="C56" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="63">
+      <c r="D56" s="62">
         <v>43273.56763888889</v>
       </c>
-      <c r="E56" s="64">
+      <c r="E56" s="63">
         <v>42.4799995422363</v>
       </c>
-      <c r="F56" s="64">
+      <c r="F56" s="63">
         <v>-70.619331359863295</v>
       </c>
-      <c r="G56" s="64">
+      <c r="G56" s="63">
         <v>21.203701019287099</v>
       </c>
-      <c r="H56" s="64">
+      <c r="H56" s="63">
         <v>7.8676667213439897</v>
       </c>
-      <c r="I56" s="64">
+      <c r="I56" s="63">
         <v>31.744800567626999</v>
       </c>
-      <c r="J56" s="64">
+      <c r="J56" s="63">
         <v>24.737648010253899</v>
       </c>
-      <c r="K56" s="64">
+      <c r="K56" s="63">
         <v>33.059349060058601</v>
       </c>
-      <c r="L56" s="64">
+      <c r="L56" s="63">
         <v>0.71536427736282304</v>
       </c>
-      <c r="M56" s="64">
+      <c r="M56" s="63">
         <v>4.7028131484985396</v>
       </c>
-      <c r="N56" s="64">
+      <c r="N56" s="63">
         <v>10.4569606781006</v>
       </c>
-      <c r="O56" s="64">
+      <c r="O56" s="63">
         <v>108.11545562744099</v>
       </c>
-      <c r="P56" s="64">
+      <c r="P56" s="63">
         <v>1730.4658203125</v>
       </c>
-      <c r="Q56" s="64">
+      <c r="Q56" s="63">
         <v>29.312549591064499</v>
       </c>
-      <c r="R56" s="65">
+      <c r="R56" s="64">
         <v>8.2321720123290998</v>
       </c>
-      <c r="S56" s="68">
+      <c r="S56" s="67">
         <v>2182.952392578125</v>
       </c>
-      <c r="T56" s="67">
+      <c r="T56" s="66">
         <v>2010.8751220703125</v>
       </c>
-      <c r="U56" s="67">
+      <c r="U56" s="66">
         <v>7.869999885559082</v>
       </c>
-      <c r="V56" s="67">
+      <c r="V56" s="66">
         <v>31.203701019287109</v>
       </c>
-      <c r="W56" s="67">
+      <c r="W56" s="66">
         <v>8.089113199118751</v>
       </c>
-      <c r="X56" s="67">
+      <c r="X56" s="66">
         <v>341.73888278193607</v>
       </c>
-      <c r="Y56" s="67">
+      <c r="Y56" s="66">
         <v>343.09685692226333</v>
       </c>
-      <c r="Z56" s="67">
+      <c r="Z56" s="66">
         <v>1868.4489010412233</v>
       </c>
-      <c r="AA56" s="67">
+      <c r="AA56" s="66">
         <v>126.00913135263016</v>
       </c>
-      <c r="AB56" s="67">
+      <c r="AB56" s="66">
         <v>16.41711630483416</v>
       </c>
-      <c r="AC56" s="67">
+      <c r="AC56" s="66">
         <v>61.140287529120862</v>
       </c>
-      <c r="AD56" s="67">
+      <c r="AD56" s="66">
         <v>1.3531986907637776</v>
       </c>
-      <c r="AE56" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="67">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="67">
+      <c r="AE56" s="66">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="66">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="66">
         <v>12.797694302359336</v>
       </c>
-      <c r="AH56" s="67">
+      <c r="AH56" s="66">
         <v>3.0403509053636091</v>
       </c>
-      <c r="AI56" s="67">
+      <c r="AI56" s="66">
         <v>1.9150993702590604</v>
       </c>
-      <c r="AJ56" s="67">
+      <c r="AJ56" s="66">
         <v>346.66869011074954</v>
       </c>
       <c r="AK56" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL56" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
@@ -8563,10 +8573,10 @@
         <v>387.39070579281554</v>
       </c>
       <c r="AK57" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL57" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -8679,10 +8689,10 @@
         <v>408.64137838609565</v>
       </c>
       <c r="AK58" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL58" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -8795,10 +8805,10 @@
         <v>365.20924307435183</v>
       </c>
       <c r="AK59" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL59" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -8911,10 +8921,10 @@
         <v>424.51644859955564</v>
       </c>
       <c r="AK60" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL60" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8937,7 +8947,7 @@
       <c r="H61" s="33">
         <v>19.02</v>
       </c>
-      <c r="I61" s="87"/>
+      <c r="I61" s="85"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -9002,19 +9012,19 @@
         <v>530.68477137456648</v>
       </c>
       <c r="AK61" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL61" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:38" s="19" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
+      <c r="A62" s="68"/>
       <c r="B62" s="22"/>
-      <c r="C62" s="69" t="s">
+      <c r="C62" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="70" t="s">
+      <c r="D62" s="69" t="s">
         <v>108</v>
       </c>
       <c r="E62" s="22">
@@ -9023,10 +9033,10 @@
       <c r="F62" s="22">
         <v>-70.960667000000001</v>
       </c>
-      <c r="G62" s="69">
+      <c r="G62" s="68">
         <v>5</v>
       </c>
-      <c r="H62" s="71">
+      <c r="H62" s="70">
         <v>18</v>
       </c>
       <c r="I62" s="22"/>
@@ -9039,74 +9049,74 @@
       <c r="P62" s="22"/>
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
-      <c r="S62" s="66">
+      <c r="S62" s="65">
         <v>2147.172119140625</v>
       </c>
-      <c r="T62" s="66">
+      <c r="T62" s="65">
         <v>1992.3250732421875</v>
       </c>
-      <c r="U62" s="66">
+      <c r="U62" s="65">
         <v>18</v>
       </c>
-      <c r="V62" s="66">
+      <c r="V62" s="65">
         <v>15</v>
       </c>
-      <c r="W62" s="66">
+      <c r="W62" s="65">
         <v>7.8860547686193119</v>
       </c>
-      <c r="X62" s="66">
+      <c r="X62" s="65">
         <v>579.30250835679192</v>
       </c>
-      <c r="Y62" s="66">
+      <c r="Y62" s="65">
         <v>581.32388512902219</v>
       </c>
-      <c r="Z62" s="66">
+      <c r="Z62" s="65">
         <v>1851.5035310753715</v>
       </c>
-      <c r="AA62" s="66">
+      <c r="AA62" s="65">
         <v>120.54897779174044</v>
       </c>
-      <c r="AB62" s="66">
+      <c r="AB62" s="65">
         <v>20.27255679038463</v>
       </c>
-      <c r="AC62" s="66">
+      <c r="AC62" s="65">
         <v>52.253488677242785</v>
       </c>
-      <c r="AD62" s="66">
+      <c r="AD62" s="65">
         <v>2.3303997495045992</v>
       </c>
-      <c r="AE62" s="66">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="66">
+      <c r="AE62" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="65">
         <v>12.983582534398654</v>
       </c>
-      <c r="AH62" s="66">
+      <c r="AH62" s="65">
         <v>2.9459437088406979</v>
       </c>
-      <c r="AI62" s="66">
+      <c r="AI62" s="65">
         <v>1.8901870862133698</v>
       </c>
-      <c r="AJ62" s="66">
+      <c r="AJ62" s="65">
         <v>593.19223289792092</v>
       </c>
       <c r="AK62" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL62" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="19" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="22"/>
-      <c r="C63" s="69" t="s">
+      <c r="C63" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="70" t="s">
+      <c r="D63" s="69" t="s">
         <v>108</v>
       </c>
       <c r="E63" s="22">
@@ -9115,10 +9125,10 @@
       <c r="F63" s="22">
         <v>-70.960667000000001</v>
       </c>
-      <c r="G63" s="69">
+      <c r="G63" s="68">
         <v>5</v>
       </c>
-      <c r="H63" s="71">
+      <c r="H63" s="70">
         <v>18</v>
       </c>
       <c r="I63" s="22"/>
@@ -9131,65 +9141,65 @@
       <c r="P63" s="22"/>
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
-      <c r="S63" s="66">
+      <c r="S63" s="65">
         <v>2158.376708984375</v>
       </c>
-      <c r="T63" s="66">
+      <c r="T63" s="65">
         <v>1984.9530029296875</v>
       </c>
-      <c r="U63" s="66">
+      <c r="U63" s="65">
         <v>18</v>
       </c>
-      <c r="V63" s="66">
+      <c r="V63" s="65">
         <v>15</v>
       </c>
-      <c r="W63" s="66">
+      <c r="W63" s="65">
         <v>7.9300819518460699</v>
       </c>
-      <c r="X63" s="66">
+      <c r="X63" s="65">
         <v>518.76740898185801</v>
       </c>
-      <c r="Y63" s="66">
+      <c r="Y63" s="65">
         <v>520.57755890453041</v>
       </c>
-      <c r="Z63" s="66">
+      <c r="Z63" s="65">
         <v>1834.7023959599362</v>
       </c>
-      <c r="AA63" s="66">
+      <c r="AA63" s="65">
         <v>132.0930878666945</v>
       </c>
-      <c r="AB63" s="66">
+      <c r="AB63" s="65">
         <v>18.157465160853178</v>
       </c>
-      <c r="AC63" s="66">
+      <c r="AC63" s="65">
         <v>56.922568696130767</v>
       </c>
-      <c r="AD63" s="66">
+      <c r="AD63" s="65">
         <v>2.5774640458856695</v>
       </c>
-      <c r="AE63" s="66">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="66">
+      <c r="AE63" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="65">
         <v>12.384748451017336</v>
       </c>
-      <c r="AH63" s="66">
+      <c r="AH63" s="65">
         <v>3.2287706290561706</v>
       </c>
-      <c r="AI63" s="66">
+      <c r="AI63" s="65">
         <v>2.0714658850025471</v>
       </c>
-      <c r="AJ63" s="66">
+      <c r="AJ63" s="65">
         <v>531.20590223586555</v>
       </c>
       <c r="AK63" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL63" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
@@ -9280,10 +9290,10 @@
         <v>414.89697626276643</v>
       </c>
       <c r="AK64" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL64" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
@@ -9374,10 +9384,10 @@
         <v>372.81695902792325</v>
       </c>
       <c r="AK65" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL65" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
@@ -9468,10 +9478,10 @@
         <v>466.91398266280436</v>
       </c>
       <c r="AK66" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL66" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
@@ -9562,10 +9572,10 @@
         <v>399.43117563056387</v>
       </c>
       <c r="AK67" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL67" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -9656,10 +9666,10 @@
         <v>380.75657097222449</v>
       </c>
       <c r="AK68" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL68" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
@@ -9750,10 +9760,10 @@
         <v>400.59993307691661</v>
       </c>
       <c r="AK69" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL69" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
@@ -9844,10 +9854,10 @@
         <v>403.96505906259546</v>
       </c>
       <c r="AK70" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL70" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
@@ -9938,10 +9948,10 @@
         <v>344.01464429506228</v>
       </c>
       <c r="AK71" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL71" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
@@ -10032,10 +10042,10 @@
         <v>392.43160515542843</v>
       </c>
       <c r="AK72" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL72" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
@@ -10126,10 +10136,10 @@
         <v>421.95036921997547</v>
       </c>
       <c r="AK73" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL73" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
@@ -10220,10 +10230,10 @@
         <v>411.22610243344735</v>
       </c>
       <c r="AK74" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL74" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
@@ -10314,10 +10324,10 @@
         <v>413.16123386866087</v>
       </c>
       <c r="AK75" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL75" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
@@ -10408,10 +10418,10 @@
         <v>341.637578445663</v>
       </c>
       <c r="AK76" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL76" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.2">
@@ -10502,10 +10512,10 @@
         <v>300.54706421104885</v>
       </c>
       <c r="AK77" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL77" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
@@ -10596,10 +10606,10 @@
         <v>402.81004620424392</v>
       </c>
       <c r="AK78" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL78" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.2">
@@ -10690,10 +10700,10 @@
         <v>400.60612542604429</v>
       </c>
       <c r="AK79" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL79" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
@@ -10784,10 +10794,10 @@
         <v>396.22451180733879</v>
       </c>
       <c r="AK80" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL80" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.2">
@@ -10878,10 +10888,10 @@
         <v>478.41118268053594</v>
       </c>
       <c r="AK81" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL81" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.2">
@@ -10972,10 +10982,10 @@
         <v>478.70852384647225</v>
       </c>
       <c r="AK82" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL82" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.2">
@@ -11066,10 +11076,10 @@
         <v>582.31474460281163</v>
       </c>
       <c r="AK83" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL83" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.2">
@@ -11160,10 +11170,10 @@
         <v>483.47708398871771</v>
       </c>
       <c r="AK84" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL84" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.2">
@@ -11254,10 +11264,10 @@
         <v>435.44319035014274</v>
       </c>
       <c r="AK85" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL85" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.2">
@@ -11348,10 +11358,10 @@
         <v>499.12936076192409</v>
       </c>
       <c r="AK86" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL86" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.2">
@@ -11442,10 +11452,10 @@
         <v>470.14230188615329</v>
       </c>
       <c r="AK87" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL87" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.2">
@@ -11536,10 +11546,10 @@
         <v>430.40234996357901</v>
       </c>
       <c r="AK88" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL88" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.2">
@@ -11630,10 +11640,10 @@
         <v>528.93736262847722</v>
       </c>
       <c r="AK89" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL89" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.2">
@@ -11724,10 +11734,10 @@
         <v>505.8977982129062</v>
       </c>
       <c r="AK90" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL90" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.2">
@@ -11818,10 +11828,10 @@
         <v>441.67685909108616</v>
       </c>
       <c r="AK91" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL91" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.2">
@@ -11912,10 +11922,10 @@
         <v>440.57247784943274</v>
       </c>
       <c r="AK92" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL92" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.2">
@@ -12006,10 +12016,10 @@
         <v>458.43863262850641</v>
       </c>
       <c r="AK93" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL93" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.2">
@@ -12100,10 +12110,10 @@
         <v>537.72668008260268</v>
       </c>
       <c r="AK94" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL94" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.2">
@@ -12194,10 +12204,10 @@
         <v>533.13319564920766</v>
       </c>
       <c r="AK95" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL95" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.2">
@@ -12288,10 +12298,10 @@
         <v>449.63412727415084</v>
       </c>
       <c r="AK96" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL96" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.2">
@@ -12382,10 +12392,10 @@
         <v>458.60768325822607</v>
       </c>
       <c r="AK97" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL97" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.2">
@@ -12476,10 +12486,10 @@
         <v>498.67231745495957</v>
       </c>
       <c r="AK98" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL98" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.2">
@@ -12570,10 +12580,10 @@
         <v>505.12510871663369</v>
       </c>
       <c r="AK99" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL99" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.2">
@@ -12664,10 +12674,10 @@
         <v>461.36447233675631</v>
       </c>
       <c r="AK100" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL100" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.2">
@@ -12758,10 +12768,10 @@
         <v>508.49758992131353</v>
       </c>
       <c r="AK101" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL101" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
@@ -12852,10 +12862,10 @@
         <v>447.33691049907628</v>
       </c>
       <c r="AK102" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL102" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.2">
@@ -12946,10 +12956,10 @@
         <v>485.26319584279321</v>
       </c>
       <c r="AK103" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL103" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.2">
@@ -13040,10 +13050,10 @@
         <v>425.19978533473653</v>
       </c>
       <c r="AK104" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL104" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.2">
@@ -13134,10 +13144,10 @@
         <v>415.74973361346889</v>
       </c>
       <c r="AK105" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL105" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.2">
@@ -13228,10 +13238,10 @@
         <v>413.79501237694552</v>
       </c>
       <c r="AK106" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL106" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.2">
@@ -13322,10 +13332,10 @@
         <v>428.92057194169962</v>
       </c>
       <c r="AK107" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL107" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.2">
@@ -13416,10 +13426,10 @@
         <v>431.3071016908446</v>
       </c>
       <c r="AK108" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL108" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -13532,10 +13542,10 @@
         <v>498.95886476646956</v>
       </c>
       <c r="AK109" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL109" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -13648,10 +13658,10 @@
         <v>396.32291786033011</v>
       </c>
       <c r="AK110" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL110" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -13764,10 +13774,10 @@
         <v>384.60131864318475</v>
       </c>
       <c r="AK111" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL111" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.2">
@@ -13858,10 +13868,10 @@
         <v>638.2786306918581</v>
       </c>
       <c r="AK112" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL112" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -13879,7 +13889,7 @@
       <c r="F113" s="22">
         <v>-70.960667000000001</v>
       </c>
-      <c r="G113" s="72">
+      <c r="G113" s="71">
         <v>4.5731707320000003</v>
       </c>
       <c r="H113" s="22">
@@ -13897,65 +13907,65 @@
       <c r="P113" s="22"/>
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
-      <c r="S113" s="66">
+      <c r="S113" s="65">
         <v>2107.0654296875</v>
       </c>
-      <c r="T113" s="66">
+      <c r="T113" s="65">
         <v>1981.034423828125</v>
       </c>
-      <c r="U113" s="66">
+      <c r="U113" s="65">
         <v>18</v>
       </c>
-      <c r="V113" s="66">
+      <c r="V113" s="65">
         <v>14.57317066192627</v>
       </c>
-      <c r="W113" s="66">
+      <c r="W113" s="65">
         <v>7.8188939641444657</v>
       </c>
-      <c r="X113" s="66">
+      <c r="X113" s="65">
         <v>678.02817015002358</v>
       </c>
-      <c r="Y113" s="66">
+      <c r="Y113" s="65">
         <v>680.39403319098756</v>
       </c>
-      <c r="Z113" s="66">
+      <c r="Z113" s="65">
         <v>1854.5290799845693</v>
       </c>
-      <c r="AA113" s="66">
+      <c r="AA113" s="65">
         <v>102.74159055641401</v>
       </c>
-      <c r="AB113" s="66">
+      <c r="AB113" s="65">
         <v>23.763738713806049</v>
       </c>
-      <c r="AC113" s="66">
+      <c r="AC113" s="65">
         <v>45.082380399425148</v>
       </c>
-      <c r="AD113" s="66">
+      <c r="AD113" s="65">
         <v>1.9862413682355771</v>
       </c>
-      <c r="AE113" s="66">
-        <v>0</v>
-      </c>
-      <c r="AF113" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG113" s="66">
+      <c r="AE113" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF113" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="65">
         <v>13.964656321996969</v>
       </c>
-      <c r="AH113" s="66">
+      <c r="AH113" s="65">
         <v>2.5155888851636821</v>
       </c>
-      <c r="AI113" s="66">
+      <c r="AI113" s="65">
         <v>1.612801156317448</v>
       </c>
-      <c r="AJ113" s="66">
+      <c r="AJ113" s="65">
         <v>694.28715277014703</v>
       </c>
       <c r="AK113" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL113" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -13973,7 +13983,7 @@
       <c r="F114" s="22">
         <v>-70.960667000000001</v>
       </c>
-      <c r="G114" s="72">
+      <c r="G114" s="71">
         <v>4.5731707320000003</v>
       </c>
       <c r="H114" s="22">
@@ -13991,65 +14001,65 @@
       <c r="P114" s="22"/>
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
-      <c r="S114" s="66">
+      <c r="S114" s="65">
         <v>2103.81298828125</v>
       </c>
-      <c r="T114" s="66">
+      <c r="T114" s="65">
         <v>1986.644287109375</v>
       </c>
-      <c r="U114" s="66">
+      <c r="U114" s="65">
         <v>18</v>
       </c>
-      <c r="V114" s="66">
+      <c r="V114" s="65">
         <v>14.57317066192627</v>
       </c>
-      <c r="W114" s="66">
+      <c r="W114" s="65">
         <v>7.7946627514788824</v>
       </c>
-      <c r="X114" s="66">
+      <c r="X114" s="65">
         <v>720.49565006015814</v>
       </c>
-      <c r="Y114" s="66">
+      <c r="Y114" s="65">
         <v>723.00969609053982</v>
       </c>
-      <c r="Z114" s="66">
+      <c r="Z114" s="65">
         <v>1863.7431497747689</v>
       </c>
-      <c r="AA114" s="66">
+      <c r="AA114" s="65">
         <v>97.648929067870355</v>
       </c>
-      <c r="AB114" s="66">
+      <c r="AB114" s="65">
         <v>25.252151940346504</v>
       </c>
-      <c r="AC114" s="66">
+      <c r="AC114" s="65">
         <v>42.909896821473623</v>
       </c>
-      <c r="AD114" s="66">
+      <c r="AD114" s="65">
         <v>1.8784550630590131</v>
       </c>
-      <c r="AE114" s="66">
-        <v>0</v>
-      </c>
-      <c r="AF114" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG114" s="66">
+      <c r="AE114" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG114" s="65">
         <v>14.308713517084602</v>
       </c>
-      <c r="AH114" s="66">
+      <c r="AH114" s="65">
         <v>2.3908969997538763</v>
       </c>
-      <c r="AI114" s="66">
+      <c r="AI114" s="65">
         <v>1.532858357174713</v>
       </c>
-      <c r="AJ114" s="66">
+      <c r="AJ114" s="65">
         <v>737.77299452449017</v>
       </c>
       <c r="AK114" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL114" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.2">
@@ -14140,10 +14150,10 @@
         <v>720.01330401661357</v>
       </c>
       <c r="AK115" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL115" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.2">
@@ -14234,10 +14244,10 @@
         <v>680.64969840606011</v>
       </c>
       <c r="AK116" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL116" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.2">
@@ -14328,10 +14338,10 @@
         <v>654.80443260074526</v>
       </c>
       <c r="AK117" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL117" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.2">
@@ -14422,10 +14432,10 @@
         <v>600.24214153876187</v>
       </c>
       <c r="AK118" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL118" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -14443,7 +14453,7 @@
       <c r="F119" s="22">
         <v>-70.897137000000001</v>
       </c>
-      <c r="G119" s="72">
+      <c r="G119" s="71">
         <v>5.5</v>
       </c>
       <c r="H119" s="22">
@@ -14461,65 +14471,65 @@
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
       <c r="R119" s="22"/>
-      <c r="S119" s="66">
+      <c r="S119" s="65">
         <v>2129.41650390625</v>
       </c>
-      <c r="T119" s="66">
+      <c r="T119" s="65">
         <v>1960.628173828125</v>
       </c>
-      <c r="U119" s="66">
+      <c r="U119" s="65">
         <v>18.200000762939453</v>
       </c>
-      <c r="V119" s="66">
+      <c r="V119" s="65">
         <v>11</v>
       </c>
-      <c r="W119" s="66">
+      <c r="W119" s="65">
         <v>7.9268177193534237</v>
       </c>
-      <c r="X119" s="66">
+      <c r="X119" s="65">
         <v>518.63532270585415</v>
       </c>
-      <c r="Y119" s="66">
+      <c r="Y119" s="65">
         <v>520.44047448884055</v>
       </c>
-      <c r="Z119" s="66">
+      <c r="Z119" s="65">
         <v>1813.6411381833911</v>
       </c>
-      <c r="AA119" s="66">
+      <c r="AA119" s="65">
         <v>128.88447137243907</v>
       </c>
-      <c r="AB119" s="66">
+      <c r="AB119" s="65">
         <v>18.102590766559462</v>
       </c>
-      <c r="AC119" s="66">
+      <c r="AC119" s="65">
         <v>55.43850569433571</v>
       </c>
-      <c r="AD119" s="66">
+      <c r="AD119" s="65">
         <v>2.5799335411040869</v>
       </c>
-      <c r="AE119" s="66">
-        <v>0</v>
-      </c>
-      <c r="AF119" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG119" s="66">
+      <c r="AE119" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG119" s="65">
         <v>12.471879549968403</v>
       </c>
-      <c r="AH119" s="66">
+      <c r="AH119" s="65">
         <v>3.1646730283292719</v>
       </c>
-      <c r="AI119" s="66">
+      <c r="AI119" s="65">
         <v>2.0280809297900495</v>
       </c>
-      <c r="AJ119" s="66">
+      <c r="AJ119" s="65">
         <v>531.2065034121041</v>
       </c>
       <c r="AK119" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL119" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -14537,7 +14547,7 @@
       <c r="F120" s="22">
         <v>-70.897137000000001</v>
       </c>
-      <c r="G120" s="72">
+      <c r="G120" s="71">
         <v>5.5</v>
       </c>
       <c r="H120" s="22">
@@ -14555,65 +14565,65 @@
       <c r="P120" s="22"/>
       <c r="Q120" s="22"/>
       <c r="R120" s="22"/>
-      <c r="S120" s="66">
+      <c r="S120" s="65">
         <v>2112.845703125</v>
       </c>
-      <c r="T120" s="66">
+      <c r="T120" s="65">
         <v>1963.6214599609375</v>
       </c>
-      <c r="U120" s="66">
+      <c r="U120" s="65">
         <v>17.799999237060547</v>
       </c>
-      <c r="V120" s="66">
+      <c r="V120" s="65">
         <v>28.292682647705078</v>
       </c>
-      <c r="W120" s="66">
+      <c r="W120" s="65">
         <v>7.8860045053250998</v>
       </c>
-      <c r="X120" s="66">
+      <c r="X120" s="65">
         <v>571.50435166985221</v>
       </c>
-      <c r="Y120" s="66">
+      <c r="Y120" s="65">
         <v>573.50353469155687</v>
       </c>
-      <c r="Z120" s="66">
+      <c r="Z120" s="65">
         <v>1827.0237356565979</v>
       </c>
-      <c r="AA120" s="66">
+      <c r="AA120" s="65">
         <v>116.41810055682808</v>
       </c>
-      <c r="AB120" s="66">
+      <c r="AB120" s="65">
         <v>20.17963486377781</v>
       </c>
-      <c r="AC120" s="66">
+      <c r="AC120" s="65">
         <v>50.7344315423029</v>
       </c>
-      <c r="AD120" s="66">
+      <c r="AD120" s="65">
         <v>2.2645513107574349</v>
       </c>
-      <c r="AE120" s="66">
-        <v>0</v>
-      </c>
-      <c r="AF120" s="66">
-        <v>0</v>
-      </c>
-      <c r="AG120" s="66">
+      <c r="AE120" s="65">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG120" s="65">
         <v>13.125058157802235</v>
       </c>
-      <c r="AH120" s="66">
+      <c r="AH120" s="65">
         <v>2.8489391408840676</v>
       </c>
-      <c r="AI120" s="66">
+      <c r="AI120" s="65">
         <v>1.8243661321119571</v>
       </c>
-      <c r="AJ120" s="66">
+      <c r="AJ120" s="65">
         <v>585.06645630321623</v>
       </c>
       <c r="AK120" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL120" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.2">
@@ -14704,10 +14714,10 @@
         <v>583.96147308942056</v>
       </c>
       <c r="AK121" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL121" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.2">
@@ -14798,10 +14808,10 @@
         <v>757.27940614763486</v>
       </c>
       <c r="AK122" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL122" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.2">
@@ -14892,10 +14902,10 @@
         <v>619.33892562106314</v>
       </c>
       <c r="AK123" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL123" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:38" x14ac:dyDescent="0.2">
@@ -14986,10 +14996,10 @@
         <v>902.7255798647659</v>
       </c>
       <c r="AK124" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL124" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:38" x14ac:dyDescent="0.2">
@@ -15080,10 +15090,10 @@
         <v>377.42721731164573</v>
       </c>
       <c r="AK125" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL125" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.2">
@@ -15174,10 +15184,10 @@
         <v>845.81123328669719</v>
       </c>
       <c r="AK126" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL126" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.2">
@@ -15268,10 +15278,10 @@
         <v>592.06082633519111</v>
       </c>
       <c r="AK127" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL127" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.2">
@@ -15362,10 +15372,10 @@
         <v>355.26007971320121</v>
       </c>
       <c r="AK128" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL128" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:38" x14ac:dyDescent="0.2">
@@ -15456,10 +15466,10 @@
         <v>906.52243774939859</v>
       </c>
       <c r="AK129" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL129" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -15572,10 +15582,10 @@
         <v>388.09525296669983</v>
       </c>
       <c r="AK130" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL130" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -15688,10 +15698,10 @@
         <v>411.28151864309046</v>
       </c>
       <c r="AK131" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL131" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -15804,10 +15814,10 @@
         <v>567.43954504628323</v>
       </c>
       <c r="AK132" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL132" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:38" x14ac:dyDescent="0.2">
@@ -15920,10 +15930,10 @@
         <v>470.884295439531</v>
       </c>
       <c r="AK133" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL133" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -16036,10 +16046,10 @@
         <v>455.44814433509117</v>
       </c>
       <c r="AK134" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL134" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -16152,10 +16162,10 @@
         <v>598.12334040978067</v>
       </c>
       <c r="AK135" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL135" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:38" x14ac:dyDescent="0.2">
@@ -16268,10 +16278,10 @@
         <v>433.46527753739082</v>
       </c>
       <c r="AK136" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL136" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -16284,7 +16294,7 @@
       <c r="C137" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D137" s="73">
+      <c r="D137" s="72">
         <v>43348.53670138889</v>
       </c>
       <c r="E137" s="19">
@@ -16384,10 +16394,10 @@
         <v>431.99546532468037</v>
       </c>
       <c r="AK137" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL137" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -16400,7 +16410,7 @@
       <c r="C138" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D138" s="73">
+      <c r="D138" s="72">
         <v>43348.53670138889</v>
       </c>
       <c r="E138" s="19">
@@ -16500,10 +16510,10 @@
         <v>431.09407565125252</v>
       </c>
       <c r="AK138" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL138" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" spans="1:38" x14ac:dyDescent="0.2">
@@ -16616,10 +16626,10 @@
         <v>571.48228912191223</v>
       </c>
       <c r="AK139" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL139" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="1:38" x14ac:dyDescent="0.2">
@@ -16732,14 +16742,14 @@
         <v>462.2597670914447</v>
       </c>
       <c r="AK140" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL140" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="141" spans="1:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="58" t="s">
+      <c r="A141" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B141" s="19" t="s">
@@ -16748,7 +16758,7 @@
       <c r="C141" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D141" s="73">
+      <c r="D141" s="72">
         <v>43348.593854166669</v>
       </c>
       <c r="E141" s="19">
@@ -16848,14 +16858,14 @@
         <v>564.50068503866612</v>
       </c>
       <c r="AK141" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL141" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="58" t="s">
+      <c r="A142" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B142" s="19" t="s">
@@ -16864,7 +16874,7 @@
       <c r="C142" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D142" s="73">
+      <c r="D142" s="72">
         <v>43348.593854166669</v>
       </c>
       <c r="E142" s="19">
@@ -16964,10 +16974,10 @@
         <v>516.46740493993332</v>
       </c>
       <c r="AK142" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL142" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -17080,10 +17090,10 @@
         <v>635.50009798428857</v>
       </c>
       <c r="AK143" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL143" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:38" ht="16" x14ac:dyDescent="0.2">
@@ -17094,7 +17104,7 @@
         <v>92</v>
       </c>
       <c r="D144" s="43" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="E144">
         <v>42.346533000000001</v>
@@ -17166,21 +17176,21 @@
         <v>772.32074308246092</v>
       </c>
       <c r="AK144" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL144" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" spans="2:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B145" s="74" t="s">
+      <c r="B145" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C145" s="74" t="s">
+      <c r="C145" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D145" s="75" t="s">
-        <v>211</v>
+      <c r="D145" s="74" t="s">
+        <v>255</v>
       </c>
       <c r="E145" s="19">
         <v>42.346533000000001</v>
@@ -17252,21 +17262,21 @@
         <v>687.96041115785511</v>
       </c>
       <c r="AK145" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL145" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="2:38" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B146" s="74" t="s">
+      <c r="B146" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C146" s="74" t="s">
+      <c r="C146" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D146" s="75" t="s">
-        <v>211</v>
+      <c r="D146" s="74" t="s">
+        <v>255</v>
       </c>
       <c r="E146" s="19">
         <v>42.346533000000001</v>
@@ -17338,21 +17348,21 @@
         <v>662.09232439504046</v>
       </c>
       <c r="AK146" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL146" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="2:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B147" s="42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C147" s="31">
         <v>139</v>
       </c>
       <c r="D147" s="43" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="E147" s="1">
         <v>42.290160999999998</v>
@@ -17424,21 +17434,21 @@
         <v>662.57198296027218</v>
       </c>
       <c r="AK147" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL147" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="2:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B148" s="42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C148" s="31">
         <v>139</v>
       </c>
       <c r="D148" s="43" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="E148" s="1">
         <v>42.290160999999998</v>
@@ -17510,21 +17520,21 @@
         <v>645.48854515928645</v>
       </c>
       <c r="AK148" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL148" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="2:38" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C149" s="69">
+      <c r="B149" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C149" s="68">
         <v>124</v>
       </c>
-      <c r="D149" s="75" t="s">
-        <v>216</v>
+      <c r="D149" s="74" t="s">
+        <v>258</v>
       </c>
       <c r="E149" s="22">
         <v>42.272975000000002</v>
@@ -17596,21 +17606,21 @@
         <v>605.08452139843632</v>
       </c>
       <c r="AK149" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL149" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="2:38" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C150" s="69">
+      <c r="B150" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C150" s="68">
         <v>124</v>
       </c>
-      <c r="D150" s="75" t="s">
-        <v>216</v>
+      <c r="D150" s="74" t="s">
+        <v>258</v>
       </c>
       <c r="E150" s="22">
         <v>42.272975000000002</v>
@@ -17682,26 +17692,26 @@
         <v>534.28863524249562</v>
       </c>
       <c r="AK150" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL150" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="2:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B151" s="42" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C151" s="31">
         <v>124</v>
       </c>
       <c r="D151" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E151" s="87">
+        <v>259</v>
+      </c>
+      <c r="E151" s="85">
         <v>42.272975000000002</v>
       </c>
-      <c r="F151" s="87">
+      <c r="F151" s="85">
         <v>-70.897137000000001</v>
       </c>
       <c r="G151">
@@ -17768,21 +17778,21 @@
         <v>605.33661912354182</v>
       </c>
       <c r="AK151" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL151" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B152" s="34" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C152" s="35">
         <v>141</v>
       </c>
       <c r="D152" s="43" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="E152">
         <v>42.305943999999997</v>
@@ -17854,21 +17864,21 @@
         <v>535.73081016229673</v>
       </c>
       <c r="AK152" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL152" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B153" s="34" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C153" s="38">
         <v>141</v>
       </c>
       <c r="D153" s="43" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="E153">
         <v>42.305943999999997</v>
@@ -17940,21 +17950,21 @@
         <v>577.13543733422011</v>
       </c>
       <c r="AK153" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL153" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="2:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B154" s="44" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C154" s="38">
         <v>38</v>
       </c>
       <c r="D154" s="43" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="E154" s="1">
         <v>42.320490999999997</v>
@@ -18026,21 +18036,21 @@
         <v>579.86262051465042</v>
       </c>
       <c r="AK154" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL154" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="2:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B155" s="44" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C155" s="38">
         <v>38</v>
       </c>
       <c r="D155" s="43" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="E155" s="1">
         <v>42.320490999999997</v>
@@ -18112,21 +18122,21 @@
         <v>612.58592249609342</v>
       </c>
       <c r="AK155" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL155" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="156" spans="2:38" ht="32" x14ac:dyDescent="0.2">
       <c r="B156" s="44" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>190</v>
       </c>
       <c r="D156" s="43" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="E156" s="1">
         <v>42.367698699999998</v>
@@ -18198,21 +18208,21 @@
         <v>742.6105066465974</v>
       </c>
       <c r="AK156" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL156" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="2:38" ht="32" x14ac:dyDescent="0.2">
       <c r="B157" s="44" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>190</v>
       </c>
       <c r="D157" s="43" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="E157" s="1">
         <v>42.367698699999998</v>
@@ -18284,21 +18294,21 @@
         <v>686.49796336396594</v>
       </c>
       <c r="AK157" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL157" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="2:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B158" s="44" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C158" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D158" s="43" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="E158" s="1">
         <v>42.369919899999999</v>
@@ -18370,21 +18380,21 @@
         <v>890.31795801843589</v>
       </c>
       <c r="AK158" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL158" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="2:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B159" s="44" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C159" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D159" s="43" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="E159" s="1">
         <v>42.369919899999999</v>
@@ -18456,21 +18466,21 @@
         <v>1033.8145097795359</v>
       </c>
       <c r="AK159" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL159" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="2:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B160" s="44" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C160" s="38" t="s">
         <v>195</v>
       </c>
       <c r="D160" s="43" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="E160" s="1">
         <v>42.3737104</v>
@@ -18542,21 +18552,21 @@
         <v>705.38823823302494</v>
       </c>
       <c r="AK160" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL160" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B161" s="44" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C161" s="38" t="s">
         <v>195</v>
       </c>
       <c r="D161" s="43" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="E161" s="1">
         <v>42.3737104</v>
@@ -18628,10 +18638,10 @@
         <v>614.83752847923358</v>
       </c>
       <c r="AK161" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL161" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -18640,8 +18650,8 @@
       <c r="C162" s="45">
         <v>141</v>
       </c>
-      <c r="D162" s="47">
-        <v>1140</v>
+      <c r="D162" s="86" t="s">
+        <v>244</v>
       </c>
       <c r="E162">
         <v>42.305943999999997</v>
@@ -18649,7 +18659,7 @@
       <c r="F162">
         <v>-70.931408000000005</v>
       </c>
-      <c r="G162" s="48">
+      <c r="G162" s="47">
         <v>15.24</v>
       </c>
       <c r="H162" s="45">
@@ -18658,84 +18668,84 @@
       <c r="I162" s="45">
         <v>29.67</v>
       </c>
-      <c r="J162" s="48"/>
-      <c r="K162" s="48"/>
-      <c r="L162" s="48"/>
-      <c r="M162" s="48"/>
-      <c r="N162" s="48"/>
-      <c r="O162" s="48"/>
-      <c r="P162" s="48"/>
-      <c r="Q162" s="48"/>
-      <c r="R162" s="49"/>
-      <c r="S162" s="50">
+      <c r="J162" s="47"/>
+      <c r="K162" s="47"/>
+      <c r="L162" s="47"/>
+      <c r="M162" s="47"/>
+      <c r="N162" s="47"/>
+      <c r="O162" s="47"/>
+      <c r="P162" s="47"/>
+      <c r="Q162" s="47"/>
+      <c r="R162" s="48"/>
+      <c r="S162" s="49">
         <v>2156.604248046875</v>
       </c>
-      <c r="T162" s="51">
+      <c r="T162" s="50">
         <v>2016.758056640625</v>
       </c>
-      <c r="U162" s="52">
+      <c r="U162" s="51">
         <v>11.300000190734863</v>
       </c>
-      <c r="V162" s="51">
+      <c r="V162" s="50">
         <v>25.239999771118164</v>
       </c>
-      <c r="W162" s="52">
+      <c r="W162" s="51">
         <v>7.9811855336334787</v>
       </c>
-      <c r="X162" s="51">
+      <c r="X162" s="50">
         <v>461.27051898520017</v>
       </c>
-      <c r="Y162" s="51">
+      <c r="Y162" s="50">
         <v>463.02343938945637</v>
       </c>
-      <c r="Z162" s="51">
+      <c r="Z162" s="50">
         <v>1887.4475348387555</v>
       </c>
-      <c r="AA162" s="51">
+      <c r="AA162" s="50">
         <v>109.31165025117735</v>
       </c>
-      <c r="AB162" s="51">
+      <c r="AB162" s="50">
         <v>19.998895481957053</v>
       </c>
-      <c r="AC162" s="51">
+      <c r="AC162" s="50">
         <v>49.100048438947638</v>
       </c>
-      <c r="AD162" s="51">
+      <c r="AD162" s="50">
         <v>1.4440622101810889</v>
       </c>
-      <c r="AE162" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF162" s="51">
-        <v>0</v>
-      </c>
-      <c r="AG162" s="52">
+      <c r="AE162" s="50">
+        <v>0</v>
+      </c>
+      <c r="AF162" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG162" s="51">
         <v>13.980873139429953</v>
       </c>
-      <c r="AH162" s="53">
+      <c r="AH162" s="52">
         <v>2.6740456772510584</v>
       </c>
-      <c r="AI162" s="53">
+      <c r="AI162" s="52">
         <v>1.6838160894210052</v>
       </c>
-      <c r="AJ162" s="51">
+      <c r="AJ162" s="50">
         <v>469.11735046311918</v>
       </c>
       <c r="AK162" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL162" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="54"/>
+      <c r="A163" s="53"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="54">
+      <c r="C163" s="53">
         <v>141</v>
       </c>
-      <c r="D163" s="54">
-        <v>1150</v>
+      <c r="D163" s="86" t="s">
+        <v>245</v>
       </c>
       <c r="E163">
         <v>42.305943999999997</v>
@@ -18743,657 +18753,657 @@
       <c r="F163">
         <v>-70.931408000000005</v>
       </c>
-      <c r="G163" s="48">
+      <c r="G163" s="47">
         <v>1</v>
       </c>
-      <c r="H163" s="54">
+      <c r="H163" s="53">
         <v>11.2</v>
       </c>
-      <c r="I163" s="54">
+      <c r="I163" s="53">
         <v>31.08</v>
       </c>
-      <c r="J163" s="48"/>
-      <c r="K163" s="48"/>
-      <c r="L163" s="48"/>
-      <c r="M163" s="48"/>
-      <c r="N163" s="48"/>
-      <c r="O163" s="48"/>
-      <c r="P163" s="48"/>
-      <c r="Q163" s="48"/>
-      <c r="R163" s="49"/>
-      <c r="S163" s="50">
+      <c r="J163" s="47"/>
+      <c r="K163" s="47"/>
+      <c r="L163" s="47"/>
+      <c r="M163" s="47"/>
+      <c r="N163" s="47"/>
+      <c r="O163" s="47"/>
+      <c r="P163" s="47"/>
+      <c r="Q163" s="47"/>
+      <c r="R163" s="48"/>
+      <c r="S163" s="49">
         <v>2145.27197265625</v>
       </c>
-      <c r="T163" s="51">
+      <c r="T163" s="50">
         <v>2004.9854736328125</v>
       </c>
-      <c r="U163" s="52">
+      <c r="U163" s="51">
         <v>11.199999809265137</v>
       </c>
-      <c r="V163" s="51">
+      <c r="V163" s="50">
         <v>11</v>
       </c>
-      <c r="W163" s="52">
+      <c r="W163" s="51">
         <v>7.9675786067876491</v>
       </c>
-      <c r="X163" s="51">
+      <c r="X163" s="50">
         <v>470.89433971359341</v>
       </c>
-      <c r="Y163" s="51">
+      <c r="Y163" s="50">
         <v>472.68614687927618</v>
       </c>
-      <c r="Z163" s="51">
+      <c r="Z163" s="50">
         <v>1876.1960288042924</v>
       </c>
-      <c r="AA163" s="51">
+      <c r="AA163" s="50">
         <v>108.471326764041</v>
       </c>
-      <c r="AB163" s="51">
+      <c r="AB163" s="50">
         <v>20.318109168485954</v>
       </c>
-      <c r="AC163" s="51">
+      <c r="AC163" s="50">
         <v>50.726212950605039</v>
       </c>
-      <c r="AD163" s="51">
+      <c r="AD163" s="50">
         <v>1.4180590372014987</v>
       </c>
-      <c r="AE163" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF163" s="51">
-        <v>0</v>
-      </c>
-      <c r="AG163" s="52">
+      <c r="AE163" s="50">
+        <v>0</v>
+      </c>
+      <c r="AF163" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG163" s="51">
         <v>13.818878009944561</v>
       </c>
-      <c r="AH163" s="53">
+      <c r="AH163" s="52">
         <v>2.6393124981157872</v>
       </c>
-      <c r="AI163" s="53">
+      <c r="AI163" s="52">
         <v>1.668380244104593</v>
       </c>
-      <c r="AJ163" s="51">
+      <c r="AJ163" s="50">
         <v>478.86075616560555</v>
       </c>
       <c r="AK163" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL163" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:38" s="19" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="76"/>
+      <c r="A164" s="75"/>
       <c r="B164" s="22"/>
-      <c r="C164" s="76" t="s">
+      <c r="C164" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D164" s="77">
-        <v>1205</v>
-      </c>
-      <c r="E164" s="78">
+      <c r="D164" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="E164" s="77">
         <v>42.346533000000001</v>
       </c>
-      <c r="F164" s="78">
+      <c r="F164" s="77">
         <v>-70.960667000000001</v>
       </c>
-      <c r="G164" s="78">
+      <c r="G164" s="77">
         <v>9.1440000000000001</v>
       </c>
-      <c r="H164" s="77">
+      <c r="H164" s="76">
         <v>10.4</v>
       </c>
-      <c r="I164" s="77">
+      <c r="I164" s="76">
         <v>31.35</v>
       </c>
-      <c r="J164" s="78"/>
-      <c r="K164" s="78"/>
-      <c r="L164" s="78"/>
-      <c r="M164" s="78"/>
-      <c r="N164" s="78"/>
-      <c r="O164" s="78"/>
-      <c r="P164" s="78"/>
-      <c r="Q164" s="78"/>
-      <c r="R164" s="79"/>
-      <c r="S164" s="80">
+      <c r="J164" s="77"/>
+      <c r="K164" s="77"/>
+      <c r="L164" s="77"/>
+      <c r="M164" s="77"/>
+      <c r="N164" s="77"/>
+      <c r="O164" s="77"/>
+      <c r="P164" s="77"/>
+      <c r="Q164" s="77"/>
+      <c r="R164" s="78"/>
+      <c r="S164" s="79">
         <v>2146.924072265625</v>
       </c>
-      <c r="T164" s="81">
+      <c r="T164" s="80">
         <v>2023.624755859375</v>
       </c>
-      <c r="U164" s="82">
+      <c r="U164" s="81">
         <v>10.399999618530273</v>
       </c>
-      <c r="V164" s="81">
+      <c r="V164" s="80">
         <v>19.143999099731445</v>
       </c>
-      <c r="W164" s="82">
+      <c r="W164" s="81">
         <v>7.9301327580737935</v>
       </c>
-      <c r="X164" s="81">
+      <c r="X164" s="80">
         <v>515.78794095597641</v>
       </c>
-      <c r="Y164" s="81">
+      <c r="Y164" s="80">
         <v>517.77101100905827</v>
       </c>
-      <c r="Z164" s="81">
+      <c r="Z164" s="80">
         <v>1902.5921491789084</v>
       </c>
-      <c r="AA164" s="81">
+      <c r="AA164" s="80">
         <v>98.223039650120711</v>
       </c>
-      <c r="AB164" s="81">
+      <c r="AB164" s="80">
         <v>22.809533085500593</v>
       </c>
-      <c r="AC164" s="81">
+      <c r="AC164" s="80">
         <v>46.69134906925612</v>
       </c>
-      <c r="AD164" s="81">
+      <c r="AD164" s="80">
         <v>1.2065293031407696</v>
       </c>
-      <c r="AE164" s="81">
-        <v>0</v>
-      </c>
-      <c r="AF164" s="81">
-        <v>0</v>
-      </c>
-      <c r="AG164" s="82">
+      <c r="AE164" s="80">
+        <v>0</v>
+      </c>
+      <c r="AF164" s="80">
+        <v>0</v>
+      </c>
+      <c r="AG164" s="81">
         <v>14.55757095486203</v>
       </c>
-      <c r="AH164" s="83">
+      <c r="AH164" s="82">
         <v>2.3819079512251085</v>
       </c>
-      <c r="AI164" s="83">
+      <c r="AI164" s="82">
         <v>1.5047804812119534</v>
       </c>
-      <c r="AJ164" s="81">
+      <c r="AJ164" s="80">
         <v>524.17842838599074</v>
       </c>
       <c r="AK164" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL164" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="165" spans="1:38" s="19" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="76"/>
+      <c r="A165" s="75"/>
       <c r="B165" s="22"/>
-      <c r="C165" s="76" t="s">
+      <c r="C165" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D165" s="77">
-        <v>1205</v>
-      </c>
-      <c r="E165" s="78">
+      <c r="D165" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="E165" s="77">
         <v>42.346533000000001</v>
       </c>
-      <c r="F165" s="78">
+      <c r="F165" s="77">
         <v>-70.960667000000001</v>
       </c>
-      <c r="G165" s="78">
+      <c r="G165" s="77">
         <v>9.1440000000000001</v>
       </c>
-      <c r="H165" s="77">
+      <c r="H165" s="76">
         <v>10.4</v>
       </c>
-      <c r="I165" s="77">
+      <c r="I165" s="76">
         <v>31.35</v>
       </c>
-      <c r="J165" s="78"/>
-      <c r="K165" s="78"/>
-      <c r="L165" s="78"/>
-      <c r="M165" s="78"/>
-      <c r="N165" s="78"/>
-      <c r="O165" s="78"/>
-      <c r="P165" s="78"/>
-      <c r="Q165" s="78"/>
-      <c r="R165" s="79"/>
-      <c r="S165" s="80">
+      <c r="J165" s="77"/>
+      <c r="K165" s="77"/>
+      <c r="L165" s="77"/>
+      <c r="M165" s="77"/>
+      <c r="N165" s="77"/>
+      <c r="O165" s="77"/>
+      <c r="P165" s="77"/>
+      <c r="Q165" s="77"/>
+      <c r="R165" s="78"/>
+      <c r="S165" s="79">
         <v>2147.216064453125</v>
       </c>
-      <c r="T165" s="81">
+      <c r="T165" s="80">
         <v>2032.0697021484375</v>
       </c>
-      <c r="U165" s="82">
+      <c r="U165" s="81">
         <v>10.399999618530273</v>
       </c>
-      <c r="V165" s="81">
+      <c r="V165" s="80">
         <v>19.143999099731445</v>
       </c>
-      <c r="W165" s="82">
+      <c r="W165" s="81">
         <v>7.906933835085761</v>
       </c>
-      <c r="X165" s="81">
+      <c r="X165" s="80">
         <v>547.40330219694056</v>
       </c>
-      <c r="Y165" s="81">
+      <c r="Y165" s="80">
         <v>549.5079250648829</v>
       </c>
-      <c r="Z165" s="81">
+      <c r="Z165" s="80">
         <v>1914.1810219880447</v>
       </c>
-      <c r="AA165" s="81">
+      <c r="AA165" s="80">
         <v>93.681050621831432</v>
       </c>
-      <c r="AB165" s="81">
+      <c r="AB165" s="80">
         <v>24.207649580623279</v>
       </c>
-      <c r="AC165" s="81">
+      <c r="AC165" s="80">
         <v>44.541838901261066</v>
       </c>
-      <c r="AD165" s="81">
+      <c r="AD165" s="80">
         <v>1.1437706582103162</v>
       </c>
-      <c r="AE165" s="81">
-        <v>0</v>
-      </c>
-      <c r="AF165" s="81">
-        <v>0</v>
-      </c>
-      <c r="AG165" s="82">
+      <c r="AE165" s="80">
+        <v>0</v>
+      </c>
+      <c r="AF165" s="80">
+        <v>0</v>
+      </c>
+      <c r="AG165" s="81">
         <v>14.916215395343116</v>
       </c>
-      <c r="AH165" s="83">
+      <c r="AH165" s="82">
         <v>2.2717647524461229</v>
       </c>
-      <c r="AI165" s="83">
+      <c r="AI165" s="82">
         <v>1.4351970468161706</v>
       </c>
-      <c r="AJ165" s="81">
+      <c r="AJ165" s="80">
         <v>556.3080868216432</v>
       </c>
       <c r="AK165" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL165" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="166" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="55"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="55" t="s">
+      <c r="C166" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D166" s="54">
-        <v>1215</v>
-      </c>
-      <c r="E166" s="48">
+      <c r="D166" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="E166" s="47">
         <v>42.346533000000001</v>
       </c>
-      <c r="F166" s="48">
+      <c r="F166" s="47">
         <v>-70.960667000000001</v>
       </c>
-      <c r="G166" s="48">
+      <c r="G166" s="47">
         <v>1</v>
       </c>
-      <c r="H166" s="54">
+      <c r="H166" s="53">
         <v>10.5</v>
       </c>
-      <c r="I166" s="54">
+      <c r="I166" s="53">
         <v>30.81</v>
       </c>
-      <c r="J166" s="48"/>
-      <c r="K166" s="48"/>
-      <c r="L166" s="48"/>
-      <c r="M166" s="48"/>
-      <c r="N166" s="48"/>
-      <c r="O166" s="48"/>
-      <c r="P166" s="48"/>
-      <c r="Q166" s="48"/>
-      <c r="R166" s="49"/>
-      <c r="S166" s="50">
+      <c r="J166" s="47"/>
+      <c r="K166" s="47"/>
+      <c r="L166" s="47"/>
+      <c r="M166" s="47"/>
+      <c r="N166" s="47"/>
+      <c r="O166" s="47"/>
+      <c r="P166" s="47"/>
+      <c r="Q166" s="47"/>
+      <c r="R166" s="48"/>
+      <c r="S166" s="49">
         <v>2118.16552734375</v>
       </c>
-      <c r="T166" s="51">
+      <c r="T166" s="50">
         <v>2008.2628173828125</v>
       </c>
-      <c r="U166" s="52">
+      <c r="U166" s="51">
         <v>10.5</v>
       </c>
-      <c r="V166" s="51">
+      <c r="V166" s="50">
         <v>11</v>
       </c>
-      <c r="W166" s="52">
+      <c r="W166" s="51">
         <v>7.899701535186356</v>
       </c>
-      <c r="X166" s="51">
+      <c r="X166" s="50">
         <v>552.55622377573832</v>
       </c>
-      <c r="Y166" s="51">
+      <c r="Y166" s="50">
         <v>554.67790491738356</v>
       </c>
-      <c r="Z166" s="51">
+      <c r="Z166" s="50">
         <v>1893.5340521553003</v>
       </c>
-      <c r="AA166" s="51">
+      <c r="AA166" s="50">
         <v>90.297822482174041</v>
       </c>
-      <c r="AB166" s="51">
+      <c r="AB166" s="50">
         <v>24.43091423941679</v>
       </c>
-      <c r="AC166" s="51">
+      <c r="AC166" s="50">
         <v>42.923391314466521</v>
       </c>
-      <c r="AD166" s="51">
+      <c r="AD166" s="50">
         <v>1.125343023300553</v>
       </c>
-      <c r="AE166" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF166" s="51">
-        <v>0</v>
-      </c>
-      <c r="AG166" s="52">
+      <c r="AE166" s="50">
+        <v>0</v>
+      </c>
+      <c r="AF166" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG166" s="51">
         <v>15.104655165976796</v>
       </c>
-      <c r="AH166" s="53">
+      <c r="AH166" s="52">
         <v>2.1996816772093442</v>
       </c>
-      <c r="AI166" s="53">
+      <c r="AI166" s="52">
         <v>1.3876904520906426</v>
       </c>
-      <c r="AJ166" s="51">
+      <c r="AJ166" s="50">
         <v>561.59065659282464</v>
       </c>
       <c r="AK166" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL166" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" spans="1:38" s="19" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="77"/>
+      <c r="A167" s="76"/>
       <c r="B167" s="22"/>
-      <c r="C167" s="77">
+      <c r="C167" s="76">
         <v>124</v>
       </c>
-      <c r="D167" s="77">
-        <v>1240</v>
-      </c>
-      <c r="E167" s="78">
+      <c r="D167" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="E167" s="77">
         <v>42.272975000000002</v>
       </c>
-      <c r="F167" s="78">
+      <c r="F167" s="77">
         <v>-70.897137000000001</v>
       </c>
-      <c r="G167" s="78">
+      <c r="G167" s="77">
         <v>7.62</v>
       </c>
-      <c r="H167" s="77">
+      <c r="H167" s="76">
         <v>10.3</v>
       </c>
-      <c r="I167" s="77">
+      <c r="I167" s="76">
         <v>30.61</v>
       </c>
-      <c r="J167" s="78"/>
-      <c r="K167" s="78"/>
-      <c r="L167" s="78"/>
-      <c r="M167" s="78"/>
-      <c r="N167" s="78"/>
-      <c r="O167" s="78"/>
-      <c r="P167" s="78"/>
-      <c r="Q167" s="78"/>
-      <c r="R167" s="79"/>
-      <c r="S167" s="80">
+      <c r="J167" s="77"/>
+      <c r="K167" s="77"/>
+      <c r="L167" s="77"/>
+      <c r="M167" s="77"/>
+      <c r="N167" s="77"/>
+      <c r="O167" s="77"/>
+      <c r="P167" s="77"/>
+      <c r="Q167" s="77"/>
+      <c r="R167" s="78"/>
+      <c r="S167" s="79">
         <v>2119.635986328125</v>
       </c>
-      <c r="T167" s="81">
+      <c r="T167" s="80">
         <v>1991.644287109375</v>
       </c>
-      <c r="U167" s="82">
+      <c r="U167" s="81">
         <v>10.300000190734863</v>
       </c>
-      <c r="V167" s="81">
+      <c r="V167" s="80">
         <v>17.620000839233398</v>
       </c>
-      <c r="W167" s="82">
+      <c r="W167" s="81">
         <v>7.9570134837309787</v>
       </c>
-      <c r="X167" s="81">
+      <c r="X167" s="80">
         <v>477.31510717101753</v>
       </c>
-      <c r="Y167" s="81">
+      <c r="Y167" s="80">
         <v>479.15264174431741</v>
       </c>
-      <c r="Z167" s="81">
+      <c r="Z167" s="80">
         <v>1869.9331634443806</v>
       </c>
-      <c r="AA167" s="81">
+      <c r="AA167" s="80">
         <v>100.44307888495507</v>
       </c>
-      <c r="AB167" s="81">
+      <c r="AB167" s="80">
         <v>21.268026526116873</v>
       </c>
-      <c r="AC167" s="81">
+      <c r="AC167" s="80">
         <v>47.57297241219549</v>
       </c>
-      <c r="AD167" s="81">
+      <c r="AD167" s="80">
         <v>1.254876357859753</v>
       </c>
-      <c r="AE167" s="81">
-        <v>0</v>
-      </c>
-      <c r="AF167" s="81">
-        <v>0</v>
-      </c>
-      <c r="AG167" s="82">
+      <c r="AE167" s="80">
+        <v>0</v>
+      </c>
+      <c r="AF167" s="80">
+        <v>0</v>
+      </c>
+      <c r="AG167" s="81">
         <v>14.331259547976664</v>
       </c>
-      <c r="AH167" s="83">
+      <c r="AH167" s="82">
         <v>2.4463135773054141</v>
       </c>
-      <c r="AI167" s="83">
+      <c r="AI167" s="82">
         <v>1.5419739820801042</v>
       </c>
-      <c r="AJ167" s="81">
+      <c r="AJ167" s="80">
         <v>485.04458350189037</v>
       </c>
       <c r="AK167" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL167" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="168" spans="1:38" s="19" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="77"/>
+      <c r="A168" s="76"/>
       <c r="B168" s="22"/>
-      <c r="C168" s="77">
+      <c r="C168" s="76">
         <v>124</v>
       </c>
-      <c r="D168" s="77">
-        <v>1240</v>
-      </c>
-      <c r="E168" s="78">
+      <c r="D168" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="E168" s="77">
         <v>42.272975000000002</v>
       </c>
-      <c r="F168" s="78">
+      <c r="F168" s="77">
         <v>-70.897137000000001</v>
       </c>
-      <c r="G168" s="78">
+      <c r="G168" s="77">
         <v>7.62</v>
       </c>
-      <c r="H168" s="77">
+      <c r="H168" s="76">
         <v>10.3</v>
       </c>
-      <c r="I168" s="77">
+      <c r="I168" s="76">
         <v>30.61</v>
       </c>
-      <c r="J168" s="78"/>
-      <c r="K168" s="78"/>
-      <c r="L168" s="78"/>
-      <c r="M168" s="78"/>
-      <c r="N168" s="78"/>
-      <c r="O168" s="78"/>
-      <c r="P168" s="78"/>
-      <c r="Q168" s="78"/>
-      <c r="R168" s="79"/>
-      <c r="S168" s="80">
+      <c r="J168" s="77"/>
+      <c r="K168" s="77"/>
+      <c r="L168" s="77"/>
+      <c r="M168" s="77"/>
+      <c r="N168" s="77"/>
+      <c r="O168" s="77"/>
+      <c r="P168" s="77"/>
+      <c r="Q168" s="77"/>
+      <c r="R168" s="78"/>
+      <c r="S168" s="79">
         <v>2118.568359375</v>
       </c>
-      <c r="T168" s="81">
+      <c r="T168" s="80">
         <v>1993.112060546875</v>
       </c>
-      <c r="U168" s="82">
+      <c r="U168" s="81">
         <v>10.300000190734863</v>
       </c>
-      <c r="V168" s="81">
+      <c r="V168" s="80">
         <v>17.620000839233398</v>
       </c>
-      <c r="W168" s="82">
+      <c r="W168" s="81">
         <v>7.9500053172079195</v>
       </c>
-      <c r="X168" s="81">
+      <c r="X168" s="80">
         <v>485.74521436749598</v>
       </c>
-      <c r="Y168" s="81">
+      <c r="Y168" s="80">
         <v>487.61520258242047</v>
       </c>
-      <c r="Z168" s="81">
+      <c r="Z168" s="80">
         <v>1872.4975918126247</v>
       </c>
-      <c r="AA168" s="81">
+      <c r="AA168" s="80">
         <v>98.970789357255768</v>
       </c>
-      <c r="AB168" s="81">
+      <c r="AB168" s="80">
         <v>21.643652063166058</v>
       </c>
-      <c r="AC168" s="81">
+      <c r="AC168" s="80">
         <v>46.905864748414793</v>
       </c>
-      <c r="AD168" s="81">
+      <c r="AD168" s="80">
         <v>1.234789053158331</v>
       </c>
-      <c r="AE168" s="81">
-        <v>0</v>
-      </c>
-      <c r="AF168" s="81">
-        <v>0</v>
-      </c>
-      <c r="AG168" s="82">
+      <c r="AE168" s="80">
+        <v>0</v>
+      </c>
+      <c r="AF168" s="80">
+        <v>0</v>
+      </c>
+      <c r="AG168" s="81">
         <v>14.438911758085077</v>
       </c>
-      <c r="AH168" s="83">
+      <c r="AH168" s="82">
         <v>2.4104556376512476</v>
       </c>
-      <c r="AI168" s="83">
+      <c r="AI168" s="82">
         <v>1.519371806091437</v>
       </c>
-      <c r="AJ168" s="81">
+      <c r="AJ168" s="80">
         <v>493.61120494873074</v>
       </c>
       <c r="AK168" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL168" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="169" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="54"/>
+      <c r="A169" s="53"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="54">
+      <c r="C169" s="53">
         <v>124</v>
       </c>
-      <c r="D169" s="54">
-        <v>1244</v>
-      </c>
-      <c r="E169" s="48">
+      <c r="D169" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="E169" s="47">
         <v>42.272975000000002</v>
       </c>
-      <c r="F169" s="48">
+      <c r="F169" s="47">
         <v>-70.897137000000001</v>
       </c>
-      <c r="G169" s="48">
+      <c r="G169" s="47">
         <v>1</v>
       </c>
-      <c r="H169" s="54">
+      <c r="H169" s="53">
         <v>10.5</v>
       </c>
-      <c r="I169" s="54">
+      <c r="I169" s="53">
         <v>30.84</v>
       </c>
-      <c r="J169" s="48"/>
-      <c r="K169" s="48"/>
-      <c r="L169" s="48"/>
-      <c r="M169" s="48"/>
-      <c r="N169" s="48"/>
-      <c r="O169" s="48"/>
-      <c r="P169" s="48"/>
-      <c r="Q169" s="48"/>
-      <c r="R169" s="49"/>
-      <c r="S169" s="50">
+      <c r="J169" s="47"/>
+      <c r="K169" s="47"/>
+      <c r="L169" s="47"/>
+      <c r="M169" s="47"/>
+      <c r="N169" s="47"/>
+      <c r="O169" s="47"/>
+      <c r="P169" s="47"/>
+      <c r="Q169" s="47"/>
+      <c r="R169" s="48"/>
+      <c r="S169" s="49">
         <v>2125.85107421875</v>
       </c>
-      <c r="T169" s="51">
+      <c r="T169" s="50">
         <v>1998.8927001953125</v>
       </c>
-      <c r="U169" s="52">
+      <c r="U169" s="51">
         <v>10.5</v>
       </c>
-      <c r="V169" s="51">
+      <c r="V169" s="50">
         <v>11</v>
       </c>
-      <c r="W169" s="52">
+      <c r="W169" s="51">
         <v>7.9475965606016121</v>
       </c>
-      <c r="X169" s="51">
+      <c r="X169" s="50">
         <v>490.5342901880195</v>
       </c>
-      <c r="Y169" s="51">
+      <c r="Y169" s="50">
         <v>492.41782223062415</v>
       </c>
-      <c r="Z169" s="51">
+      <c r="Z169" s="50">
         <v>1877.1798877576234</v>
       </c>
-      <c r="AA169" s="51">
+      <c r="AA169" s="50">
         <v>100.02794405169485</v>
       </c>
-      <c r="AB169" s="51">
+      <c r="AB169" s="50">
         <v>21.684920644366628</v>
       </c>
-      <c r="AC169" s="51">
+      <c r="AC169" s="50">
         <v>47.369637125235521</v>
       </c>
-      <c r="AD169" s="51">
+      <c r="AD169" s="50">
         <v>1.2571857484182214</v>
       </c>
-      <c r="AE169" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF169" s="51">
-        <v>0</v>
-      </c>
-      <c r="AG169" s="52">
+      <c r="AE169" s="50">
+        <v>0</v>
+      </c>
+      <c r="AF169" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG169" s="51">
         <v>14.367603709690838</v>
       </c>
-      <c r="AH169" s="53">
+      <c r="AH169" s="52">
         <v>2.4363058004440212</v>
       </c>
-      <c r="AI169" s="53">
+      <c r="AI169" s="52">
         <v>1.5370984337308524</v>
       </c>
-      <c r="AJ169" s="51">
+      <c r="AJ169" s="50">
         <v>498.55454743574484</v>
       </c>
       <c r="AK169" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL169" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="170" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="54"/>
+      <c r="A170" s="53"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="54">
+      <c r="C170" s="53">
         <v>139</v>
       </c>
-      <c r="D170" s="54">
-        <v>1304</v>
+      <c r="D170" s="86" t="s">
+        <v>250</v>
       </c>
       <c r="E170" s="1">
         <v>42.290160999999998</v>
@@ -19401,93 +19411,93 @@
       <c r="F170" s="1">
         <v>-70.967208999999997</v>
       </c>
-      <c r="G170" s="48">
+      <c r="G170" s="47">
         <v>9.1440000000000001</v>
       </c>
-      <c r="H170" s="54">
+      <c r="H170" s="53">
         <v>10.5</v>
       </c>
-      <c r="I170" s="54">
+      <c r="I170" s="53">
         <v>31.33</v>
       </c>
-      <c r="J170" s="48"/>
-      <c r="K170" s="48"/>
-      <c r="L170" s="48"/>
-      <c r="M170" s="48"/>
-      <c r="N170" s="48"/>
-      <c r="O170" s="48"/>
-      <c r="P170" s="48"/>
-      <c r="Q170" s="48"/>
-      <c r="R170" s="49"/>
-      <c r="S170" s="50">
+      <c r="J170" s="47"/>
+      <c r="K170" s="47"/>
+      <c r="L170" s="47"/>
+      <c r="M170" s="47"/>
+      <c r="N170" s="47"/>
+      <c r="O170" s="47"/>
+      <c r="P170" s="47"/>
+      <c r="Q170" s="47"/>
+      <c r="R170" s="48"/>
+      <c r="S170" s="49">
         <v>2139.036865234375</v>
       </c>
-      <c r="T170" s="51">
+      <c r="T170" s="50">
         <v>2012.032958984375</v>
       </c>
-      <c r="U170" s="52">
+      <c r="U170" s="51">
         <v>10.5</v>
       </c>
-      <c r="V170" s="51">
+      <c r="V170" s="50">
         <v>19.143999099731445</v>
       </c>
-      <c r="W170" s="52">
+      <c r="W170" s="51">
         <v>7.9399323283071137</v>
       </c>
-      <c r="X170" s="51">
+      <c r="X170" s="50">
         <v>501.38296787574023</v>
       </c>
-      <c r="Y170" s="51">
+      <c r="Y170" s="50">
         <v>503.30815619488556</v>
       </c>
-      <c r="Z170" s="51">
+      <c r="Z170" s="50">
         <v>1889.7649521387229</v>
       </c>
-      <c r="AA170" s="51">
+      <c r="AA170" s="50">
         <v>100.1658031590531</v>
       </c>
-      <c r="AB170" s="51">
+      <c r="AB170" s="50">
         <v>22.102260191802102</v>
       </c>
-      <c r="AC170" s="51">
+      <c r="AC170" s="50">
         <v>47.705738678322476</v>
       </c>
-      <c r="AD170" s="51">
+      <c r="AD170" s="50">
         <v>1.2461722403838378</v>
       </c>
-      <c r="AE170" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF170" s="51">
-        <v>0</v>
-      </c>
-      <c r="AG170" s="52">
+      <c r="AE170" s="50">
+        <v>0</v>
+      </c>
+      <c r="AF170" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG170" s="51">
         <v>14.368123372882421</v>
       </c>
-      <c r="AH170" s="53">
+      <c r="AH170" s="52">
         <v>2.4293930004911819</v>
       </c>
-      <c r="AI170" s="53">
+      <c r="AI170" s="52">
         <v>1.5349649262633385</v>
       </c>
-      <c r="AJ170" s="51">
+      <c r="AJ170" s="50">
         <v>509.57890889345214</v>
       </c>
       <c r="AK170" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL170" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="54"/>
+      <c r="A171" s="53"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="54">
+      <c r="C171" s="53">
         <v>139</v>
       </c>
-      <c r="D171" s="54">
-        <v>1308</v>
+      <c r="D171" s="86" t="s">
+        <v>251</v>
       </c>
       <c r="E171" s="1">
         <v>42.290160999999998</v>
@@ -19495,368 +19505,369 @@
       <c r="F171" s="1">
         <v>-70.967208999999997</v>
       </c>
-      <c r="G171" s="48">
+      <c r="G171" s="47">
         <v>1</v>
       </c>
-      <c r="H171" s="54">
+      <c r="H171" s="53">
         <v>10.6</v>
       </c>
-      <c r="I171" s="54">
+      <c r="I171" s="53">
         <v>31.03</v>
       </c>
-      <c r="J171" s="48"/>
-      <c r="K171" s="48"/>
-      <c r="L171" s="48"/>
-      <c r="M171" s="48"/>
-      <c r="N171" s="48"/>
-      <c r="O171" s="48"/>
-      <c r="P171" s="48"/>
-      <c r="Q171" s="48"/>
-      <c r="R171" s="49"/>
-      <c r="S171" s="50">
+      <c r="J171" s="47"/>
+      <c r="K171" s="47"/>
+      <c r="L171" s="47"/>
+      <c r="M171" s="47"/>
+      <c r="N171" s="47"/>
+      <c r="O171" s="47"/>
+      <c r="P171" s="47"/>
+      <c r="Q171" s="47"/>
+      <c r="R171" s="48"/>
+      <c r="S171" s="49">
         <v>2118.44384765625</v>
       </c>
-      <c r="T171" s="51">
+      <c r="T171" s="50">
         <v>1993.39404296875</v>
       </c>
-      <c r="U171" s="52">
+      <c r="U171" s="51">
         <v>10.600000381469727</v>
       </c>
-      <c r="V171" s="51">
+      <c r="V171" s="50">
         <v>11</v>
       </c>
-      <c r="W171" s="52">
+      <c r="W171" s="51">
         <v>7.9390400757565063</v>
       </c>
-      <c r="X171" s="51">
+      <c r="X171" s="50">
         <v>499.24982356951955</v>
       </c>
-      <c r="Y171" s="51">
+      <c r="Y171" s="50">
         <v>501.16433768192343</v>
       </c>
-      <c r="Z171" s="51">
+      <c r="Z171" s="50">
         <v>1872.7072371668107</v>
       </c>
-      <c r="AA171" s="51">
+      <c r="AA171" s="50">
         <v>98.712868994642136</v>
       </c>
-      <c r="AB171" s="51">
+      <c r="AB171" s="50">
         <v>21.97388498105849</v>
       </c>
-      <c r="AC171" s="51">
+      <c r="AC171" s="50">
         <v>47.073452557343899</v>
       </c>
-      <c r="AD171" s="51">
+      <c r="AD171" s="50">
         <v>1.2491262460026242</v>
       </c>
-      <c r="AE171" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF171" s="51">
-        <v>0</v>
-      </c>
-      <c r="AG171" s="52">
+      <c r="AE171" s="50">
+        <v>0</v>
+      </c>
+      <c r="AF171" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG171" s="51">
         <v>14.404705537931546</v>
       </c>
-      <c r="AH171" s="53">
+      <c r="AH171" s="52">
         <v>2.4018495079628011</v>
       </c>
-      <c r="AI171" s="53">
+      <c r="AI171" s="52">
         <v>1.5164362182121365</v>
       </c>
-      <c r="AJ171" s="51">
+      <c r="AJ171" s="50">
         <v>507.45173896106468</v>
       </c>
       <c r="AK171" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL171" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172" spans="1:38" s="19" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="85"/>
-      <c r="B172" s="84"/>
-      <c r="C172" s="76" t="s">
+      <c r="A172" s="84"/>
+      <c r="B172" s="83"/>
+      <c r="C172" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D172" s="86">
-        <v>1140</v>
-      </c>
-      <c r="E172" s="78">
+      <c r="D172" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="E172" s="77">
         <v>42.346533000000001</v>
       </c>
-      <c r="F172" s="78">
+      <c r="F172" s="77">
         <v>-70.960667000000001</v>
       </c>
-      <c r="G172" s="78">
+      <c r="G172" s="77">
         <v>1</v>
       </c>
-      <c r="H172" s="77">
+      <c r="H172" s="76">
         <v>6.9</v>
       </c>
-      <c r="I172" s="77">
+      <c r="I172" s="76">
         <v>27.14</v>
       </c>
-      <c r="J172" s="78"/>
-      <c r="K172" s="78"/>
-      <c r="L172" s="78"/>
-      <c r="M172" s="78"/>
-      <c r="N172" s="78"/>
-      <c r="O172" s="78"/>
-      <c r="P172" s="78"/>
-      <c r="Q172" s="78"/>
-      <c r="R172" s="79"/>
-      <c r="S172" s="80">
+      <c r="J172" s="77"/>
+      <c r="K172" s="77"/>
+      <c r="L172" s="77"/>
+      <c r="M172" s="77"/>
+      <c r="N172" s="77"/>
+      <c r="O172" s="77"/>
+      <c r="P172" s="77"/>
+      <c r="Q172" s="77"/>
+      <c r="R172" s="78"/>
+      <c r="S172" s="79">
         <v>1939.022705078125</v>
       </c>
-      <c r="T172" s="81">
+      <c r="T172" s="80">
         <v>1857.4368896484375</v>
       </c>
-      <c r="U172" s="82">
+      <c r="U172" s="81">
         <v>6.9000000953674316</v>
       </c>
-      <c r="V172" s="81">
+      <c r="V172" s="80">
         <v>11</v>
       </c>
-      <c r="W172" s="82">
+      <c r="W172" s="81">
         <v>7.9289835674613478</v>
       </c>
-      <c r="X172" s="81">
+      <c r="X172" s="80">
         <v>471.34205356183054</v>
       </c>
-      <c r="Y172" s="81">
+      <c r="Y172" s="80">
         <v>473.23905954971445</v>
       </c>
-      <c r="Z172" s="81">
+      <c r="Z172" s="80">
         <v>1763.3256867623454</v>
       </c>
-      <c r="AA172" s="81">
+      <c r="AA172" s="80">
         <v>70.056946163282973</v>
       </c>
-      <c r="AB172" s="81">
+      <c r="AB172" s="80">
         <v>24.054211222113501</v>
       </c>
-      <c r="AC172" s="81">
+      <c r="AC172" s="80">
         <v>34.813518423577527</v>
       </c>
-      <c r="AD172" s="81">
+      <c r="AD172" s="80">
         <v>0.78155280028065843</v>
       </c>
-      <c r="AE172" s="81">
-        <v>0</v>
-      </c>
-      <c r="AF172" s="81">
-        <v>0</v>
-      </c>
-      <c r="AG172" s="82">
+      <c r="AE172" s="80">
+        <v>0</v>
+      </c>
+      <c r="AF172" s="80">
+        <v>0</v>
+      </c>
+      <c r="AG172" s="81">
         <v>16.599511661683966</v>
       </c>
-      <c r="AH172" s="83">
+      <c r="AH172" s="82">
         <v>1.7358869737834901</v>
       </c>
-      <c r="AI172" s="83">
+      <c r="AI172" s="82">
         <v>1.075191596873547</v>
       </c>
-      <c r="AJ172" s="81">
+      <c r="AJ172" s="80">
         <v>477.85795587899315</v>
       </c>
       <c r="AK172" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL172" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="173" spans="1:38" s="19" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="76"/>
-      <c r="B173" s="84"/>
-      <c r="C173" s="76" t="s">
+      <c r="A173" s="75"/>
+      <c r="B173" s="83"/>
+      <c r="C173" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D173" s="77">
-        <v>1140</v>
-      </c>
-      <c r="E173" s="78">
+      <c r="D173" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="E173" s="77">
         <v>42.346533000000001</v>
       </c>
-      <c r="F173" s="78">
+      <c r="F173" s="77">
         <v>-70.960667000000001</v>
       </c>
-      <c r="G173" s="78">
+      <c r="G173" s="77">
         <v>1</v>
       </c>
-      <c r="H173" s="77">
+      <c r="H173" s="76">
         <v>6.9</v>
       </c>
-      <c r="I173" s="77">
+      <c r="I173" s="76">
         <v>27.14</v>
       </c>
-      <c r="J173" s="78"/>
-      <c r="K173" s="78"/>
-      <c r="L173" s="78"/>
-      <c r="M173" s="78"/>
-      <c r="N173" s="78"/>
-      <c r="O173" s="78"/>
-      <c r="P173" s="78"/>
-      <c r="Q173" s="78"/>
-      <c r="R173" s="79"/>
-      <c r="S173" s="80">
+      <c r="J173" s="77"/>
+      <c r="K173" s="77"/>
+      <c r="L173" s="77"/>
+      <c r="M173" s="77"/>
+      <c r="N173" s="77"/>
+      <c r="O173" s="77"/>
+      <c r="P173" s="77"/>
+      <c r="Q173" s="77"/>
+      <c r="R173" s="78"/>
+      <c r="S173" s="79">
         <v>1927.9591064453125</v>
       </c>
-      <c r="T173" s="81">
+      <c r="T173" s="80">
         <v>1850.4356689453125</v>
       </c>
-      <c r="U173" s="82">
+      <c r="U173" s="81">
         <v>6.9000000953674316</v>
       </c>
-      <c r="V173" s="81">
+      <c r="V173" s="80">
         <v>11</v>
       </c>
-      <c r="W173" s="82">
+      <c r="W173" s="81">
         <v>7.9153209391352846</v>
       </c>
-      <c r="X173" s="81">
+      <c r="X173" s="80">
         <v>484.93821816876596</v>
       </c>
-      <c r="Y173" s="81">
+      <c r="Y173" s="80">
         <v>486.88994451414123</v>
       </c>
-      <c r="Z173" s="81">
+      <c r="Z173" s="80">
         <v>1758.0050911407734</v>
       </c>
-      <c r="AA173" s="81">
+      <c r="AA173" s="80">
         <v>67.68246514067414</v>
       </c>
-      <c r="AB173" s="81">
+      <c r="AB173" s="80">
         <v>24.74807041162228</v>
       </c>
-      <c r="AC173" s="81">
+      <c r="AC173" s="80">
         <v>33.844132963910354</v>
       </c>
-      <c r="AD173" s="81">
+      <c r="AD173" s="80">
         <v>0.75734837020779877</v>
       </c>
-      <c r="AE173" s="81">
-        <v>0</v>
-      </c>
-      <c r="AF173" s="81">
-        <v>0</v>
-      </c>
-      <c r="AG173" s="82">
+      <c r="AE173" s="80">
+        <v>0</v>
+      </c>
+      <c r="AF173" s="80">
+        <v>0</v>
+      </c>
+      <c r="AG173" s="81">
         <v>16.787901201370182</v>
       </c>
-      <c r="AH173" s="83">
+      <c r="AH173" s="82">
         <v>1.6770515420043777</v>
       </c>
-      <c r="AI173" s="83">
+      <c r="AI173" s="82">
         <v>1.0387494996617395</v>
       </c>
-      <c r="AJ173" s="81">
+      <c r="AJ173" s="80">
         <v>491.64207587797853</v>
       </c>
       <c r="AK173" s="19" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AL173" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="174" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="55"/>
-      <c r="B174" s="56"/>
-      <c r="C174" s="55" t="s">
+      <c r="A174" s="54"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D174" s="54">
-        <v>1205</v>
-      </c>
-      <c r="E174" s="48">
+      <c r="D174" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="E174" s="47">
         <v>42.346533000000001</v>
       </c>
-      <c r="F174" s="48">
+      <c r="F174" s="47">
         <v>-70.960667000000001</v>
       </c>
       <c r="G174" s="1">
         <v>5.4863999999999997</v>
       </c>
-      <c r="H174" s="54">
+      <c r="H174" s="53">
         <v>6.7</v>
       </c>
-      <c r="I174" s="54">
+      <c r="I174" s="53">
         <v>30.21</v>
       </c>
-      <c r="J174" s="48"/>
-      <c r="K174" s="48"/>
-      <c r="L174" s="48"/>
-      <c r="M174" s="48"/>
-      <c r="N174" s="48"/>
-      <c r="O174" s="48"/>
-      <c r="P174" s="48"/>
-      <c r="Q174" s="48"/>
-      <c r="R174" s="49"/>
-      <c r="S174" s="50">
+      <c r="J174" s="47"/>
+      <c r="K174" s="47"/>
+      <c r="L174" s="47"/>
+      <c r="M174" s="47"/>
+      <c r="N174" s="47"/>
+      <c r="O174" s="47"/>
+      <c r="P174" s="47"/>
+      <c r="Q174" s="47"/>
+      <c r="R174" s="48"/>
+      <c r="S174" s="49">
         <v>2095.6025390625</v>
       </c>
-      <c r="T174" s="51">
+      <c r="T174" s="50">
         <v>1990.4393310546875</v>
       </c>
-      <c r="U174" s="52">
+      <c r="U174" s="51">
         <v>6.6999998092651367</v>
       </c>
-      <c r="V174" s="51">
+      <c r="V174" s="50">
         <v>15.48639965057373</v>
       </c>
-      <c r="W174" s="52">
+      <c r="W174" s="51">
         <v>7.9556708817990653</v>
       </c>
-      <c r="X174" s="51">
+      <c r="X174" s="50">
         <v>465.22063783597338</v>
       </c>
-      <c r="Y174" s="51">
+      <c r="Y174" s="50">
         <v>467.09794636578522</v>
       </c>
-      <c r="Z174" s="51">
+      <c r="Z174" s="50">
         <v>1881.5692379631553</v>
       </c>
-      <c r="AA174" s="51">
+      <c r="AA174" s="50">
         <v>85.386565588234731</v>
       </c>
-      <c r="AB174" s="51">
+      <c r="AB174" s="50">
         <v>23.483566723153789</v>
       </c>
-      <c r="AC174" s="51">
+      <c r="AC174" s="50">
         <v>42.412639703084373</v>
       </c>
-      <c r="AD174" s="51">
+      <c r="AD174" s="50">
         <v>0.85870706171260347</v>
       </c>
-      <c r="AE174" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF174" s="51">
-        <v>0</v>
-      </c>
-      <c r="AG174" s="52">
+      <c r="AE174" s="50">
+        <v>0</v>
+      </c>
+      <c r="AF174" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG174" s="51">
         <v>15.544999079320226</v>
       </c>
-      <c r="AH174" s="53">
+      <c r="AH174" s="52">
         <v>2.0825235474675514</v>
       </c>
-      <c r="AI174" s="53">
+      <c r="AI174" s="52">
         <v>1.3036552272177897</v>
       </c>
-      <c r="AJ174" s="51">
+      <c r="AJ174" s="50">
         <v>471.58647866774419</v>
       </c>
       <c r="AK174" s="18" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AL174" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>